--- a/Code/Results/Cases/Case_5_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.98205962475415</v>
+        <v>19.57776145713112</v>
       </c>
       <c r="C2">
-        <v>14.48823621673233</v>
+        <v>12.87949903438337</v>
       </c>
       <c r="D2">
-        <v>5.016346703203761</v>
+        <v>3.797334755993526</v>
       </c>
       <c r="E2">
-        <v>7.224488691154517</v>
+        <v>7.334054804718463</v>
       </c>
       <c r="F2">
-        <v>39.52820564644765</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>33.48503136662754</v>
       </c>
       <c r="I2">
-        <v>26.77410694162796</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.805215037122998</v>
       </c>
       <c r="K2">
-        <v>16.6083207001811</v>
+        <v>16.87619649205789</v>
       </c>
       <c r="L2">
-        <v>9.716267938607238</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>14.10856636630782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14.51098228887463</v>
+      </c>
+      <c r="N2">
+        <v>13.38571297410302</v>
+      </c>
+      <c r="O2">
+        <v>24.41925026899921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.70474226509876</v>
+        <v>18.26263648681572</v>
       </c>
       <c r="C3">
-        <v>13.45010759381729</v>
+        <v>11.96977803507028</v>
       </c>
       <c r="D3">
-        <v>5.028374031494897</v>
+        <v>3.716473402306926</v>
       </c>
       <c r="E3">
-        <v>7.035515444179088</v>
+        <v>7.244751237892102</v>
       </c>
       <c r="F3">
-        <v>37.57217347048695</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>32.50066916443687</v>
       </c>
       <c r="I3">
-        <v>25.81647911010357</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.823788552493661</v>
       </c>
       <c r="K3">
-        <v>15.45762711644686</v>
+        <v>15.68822248190941</v>
       </c>
       <c r="L3">
-        <v>9.241149888527996</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>13.14226051742997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.853795866804</v>
+      </c>
+      <c r="N3">
+        <v>13.6303311317229</v>
+      </c>
+      <c r="O3">
+        <v>23.81750884540575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.88040663868616</v>
+        <v>17.45993809015928</v>
       </c>
       <c r="C4">
-        <v>12.78142226829317</v>
+        <v>11.38145333846228</v>
       </c>
       <c r="D4">
-        <v>5.037440061240022</v>
+        <v>3.667033146116944</v>
       </c>
       <c r="E4">
-        <v>6.922475192577171</v>
+        <v>7.193107806594715</v>
       </c>
       <c r="F4">
-        <v>36.35748127380815</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>31.91443320224679</v>
       </c>
       <c r="I4">
-        <v>25.23360012860769</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.837619872942389</v>
       </c>
       <c r="K4">
-        <v>14.71575333829296</v>
+        <v>14.9352549595649</v>
       </c>
       <c r="L4">
-        <v>8.946363146586785</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.51985509777649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.44391531976516</v>
+      </c>
+      <c r="N4">
+        <v>13.78388328559631</v>
+      </c>
+      <c r="O4">
+        <v>23.46489176292344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.53424304726033</v>
+        <v>17.12481267896041</v>
       </c>
       <c r="C5">
-        <v>12.50091166204578</v>
+        <v>11.13413902252075</v>
       </c>
       <c r="D5">
-        <v>5.041526905324843</v>
+        <v>3.646957775265683</v>
       </c>
       <c r="E5">
-        <v>6.877171163557998</v>
+        <v>7.172861271289477</v>
       </c>
       <c r="F5">
-        <v>35.8594509619199</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>31.68023825040975</v>
       </c>
       <c r="I5">
-        <v>24.99747955468261</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.843849487696229</v>
       </c>
       <c r="K5">
-        <v>14.40440106072174</v>
+        <v>14.66124691844454</v>
       </c>
       <c r="L5">
-        <v>8.825580327834874</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>12.25879189551426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.27549580841765</v>
+      </c>
+      <c r="N5">
+        <v>13.84732174127065</v>
+      </c>
+      <c r="O5">
+        <v>23.3254396988468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.47613966216959</v>
+        <v>17.06868633059225</v>
       </c>
       <c r="C6">
-        <v>12.45384466568993</v>
+        <v>11.09261322159946</v>
       </c>
       <c r="D6">
-        <v>5.04222838360679</v>
+        <v>3.6436292041242</v>
       </c>
       <c r="E6">
-        <v>6.869694706987671</v>
+        <v>7.169547465649001</v>
       </c>
       <c r="F6">
-        <v>35.77658413296545</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>31.64163817752389</v>
       </c>
       <c r="I6">
-        <v>24.95836098124059</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.844919258816303</v>
       </c>
       <c r="K6">
-        <v>14.35215167893466</v>
+        <v>14.61539032653158</v>
       </c>
       <c r="L6">
-        <v>8.805488769717879</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>12.21499085002908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.24745273945165</v>
+      </c>
+      <c r="N6">
+        <v>13.85790848840455</v>
+      </c>
+      <c r="O6">
+        <v>23.30253999062149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.87577983171392</v>
+        <v>17.45545071066852</v>
       </c>
       <c r="C7">
-        <v>12.77767185542466</v>
+        <v>11.37814872027175</v>
       </c>
       <c r="D7">
-        <v>5.037493627355646</v>
+        <v>3.666762085086191</v>
       </c>
       <c r="E7">
-        <v>6.921861113082509</v>
+        <v>7.192831526404286</v>
       </c>
       <c r="F7">
-        <v>36.35077633011883</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>31.91125555667313</v>
       </c>
       <c r="I7">
-        <v>25.23040984494001</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.83770150758708</v>
       </c>
       <c r="K7">
-        <v>14.71159108934762</v>
+        <v>14.93158371123701</v>
       </c>
       <c r="L7">
-        <v>8.944736706739562</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.51636452438188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.44164927995128</v>
+      </c>
+      <c r="N7">
+        <v>13.78473530985207</v>
+      </c>
+      <c r="O7">
+        <v>23.4629938864384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.54985052263832</v>
+        <v>19.11225465476992</v>
       </c>
       <c r="C8">
-        <v>14.13668437142364</v>
+        <v>12.57194894980725</v>
       </c>
       <c r="D8">
-        <v>5.020125620330607</v>
+        <v>3.769421713749821</v>
       </c>
       <c r="E8">
-        <v>7.158714696413885</v>
+        <v>7.302599140373071</v>
       </c>
       <c r="F8">
-        <v>38.85681559399971</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>33.14193111063049</v>
       </c>
       <c r="I8">
-        <v>26.44292151160966</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.811104869885315</v>
       </c>
       <c r="K8">
-        <v>16.2188056515092</v>
+        <v>16.47463219427422</v>
       </c>
       <c r="L8">
-        <v>9.553143453998885</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.78134965427981</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.28582163692277</v>
+      </c>
+      <c r="N8">
+        <v>13.46937341317656</v>
+      </c>
+      <c r="O8">
+        <v>24.20827547664372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.52300329081436</v>
+        <v>22.30751566685398</v>
       </c>
       <c r="C9">
-        <v>16.56106929772182</v>
+        <v>14.68108606091406</v>
       </c>
       <c r="D9">
-        <v>5.00093460228671</v>
+        <v>3.971605693942807</v>
       </c>
       <c r="E9">
-        <v>7.646713223188334</v>
+        <v>7.543300361503364</v>
       </c>
       <c r="F9">
-        <v>43.65059844566763</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>35.69414647637434</v>
       </c>
       <c r="I9">
-        <v>28.85755048094792</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.779026225815956</v>
       </c>
       <c r="K9">
-        <v>18.9012627660048</v>
+        <v>19.2273362384091</v>
       </c>
       <c r="L9">
-        <v>10.71834563862034</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>16.03695771909866</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.88322368927508</v>
+      </c>
+      <c r="N9">
+        <v>12.87664210170132</v>
+      </c>
+      <c r="O9">
+        <v>25.80331111359042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.53097957090971</v>
+        <v>24.4527541820281</v>
       </c>
       <c r="C10">
-        <v>18.2070333951622</v>
+        <v>16.09557004031975</v>
       </c>
       <c r="D10">
-        <v>4.998304440523652</v>
+        <v>4.119740032865963</v>
       </c>
       <c r="E10">
-        <v>8.019782910604054</v>
+        <v>7.735881863797616</v>
       </c>
       <c r="F10">
-        <v>47.09180037737256</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>37.6485067086487</v>
       </c>
       <c r="I10">
-        <v>30.65245993964417</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.768916784494635</v>
       </c>
       <c r="K10">
-        <v>20.7167613750965</v>
+        <v>21.07177343285403</v>
       </c>
       <c r="L10">
-        <v>11.61747358649615</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>17.56611958444914</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17.01386587833092</v>
+      </c>
+      <c r="N10">
+        <v>12.45558496395825</v>
+      </c>
+      <c r="O10">
+        <v>27.05688355889173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.40925769085014</v>
+        <v>25.3867021472237</v>
       </c>
       <c r="C11">
-        <v>18.92935577973865</v>
+        <v>16.71124655361796</v>
       </c>
       <c r="D11">
-        <v>5.000227547783244</v>
+        <v>4.186881296148625</v>
       </c>
       <c r="E11">
-        <v>8.192867614203681</v>
+        <v>7.826974873706454</v>
       </c>
       <c r="F11">
-        <v>48.64075425723471</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>38.55431074195501</v>
       </c>
       <c r="I11">
-        <v>31.47428572093057</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.767534547931838</v>
       </c>
       <c r="K11">
-        <v>21.51181578528666</v>
+        <v>21.87412723125812</v>
       </c>
       <c r="L11">
-        <v>12.08300438574565</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>18.2363365546976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>17.64939147084428</v>
+      </c>
+      <c r="N11">
+        <v>12.26693069331038</v>
+      </c>
+      <c r="O11">
+        <v>27.64524446364479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.7370746119175</v>
+        <v>25.73451739358849</v>
       </c>
       <c r="C12">
-        <v>19.19935398285046</v>
+        <v>16.94053141284101</v>
       </c>
       <c r="D12">
-        <v>5.001465950814207</v>
+        <v>4.212260228000058</v>
       </c>
       <c r="E12">
-        <v>8.258926633402556</v>
+        <v>7.861977874937785</v>
       </c>
       <c r="F12">
-        <v>49.22518734349048</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>38.8997377868111</v>
       </c>
       <c r="I12">
-        <v>31.78639677245558</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.767500529646327</v>
       </c>
       <c r="K12">
-        <v>21.80872133764395</v>
+        <v>22.1728547462195</v>
       </c>
       <c r="L12">
-        <v>12.25701744505776</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>18.48670290098807</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>17.88951241354822</v>
+      </c>
+      <c r="N12">
+        <v>12.19589220043537</v>
+      </c>
+      <c r="O12">
+        <v>27.87069945989875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.66668045981233</v>
+        <v>25.65986629451221</v>
       </c>
       <c r="C13">
-        <v>19.14135731567564</v>
+        <v>16.89132011613024</v>
       </c>
       <c r="D13">
-        <v>5.00117547443172</v>
+        <v>4.206796608854753</v>
       </c>
       <c r="E13">
-        <v>8.244676077505057</v>
+        <v>7.854416623682443</v>
       </c>
       <c r="F13">
-        <v>49.09940820124317</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>38.82523560730417</v>
       </c>
       <c r="I13">
-        <v>31.7191348777162</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.767485637585428</v>
       </c>
       <c r="K13">
-        <v>21.74495797809469</v>
+        <v>22.10874268001755</v>
       </c>
       <c r="L13">
-        <v>12.21963883470991</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>18.4329307192677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>17.83797883130676</v>
+      </c>
+      <c r="N13">
+        <v>12.21117397363539</v>
+      </c>
+      <c r="O13">
+        <v>27.82202443822775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.43632116675323</v>
+        <v>25.41543327332332</v>
       </c>
       <c r="C14">
-        <v>18.95163775197572</v>
+        <v>16.73018646079269</v>
       </c>
       <c r="D14">
-        <v>5.000318823675673</v>
+        <v>4.188970209949922</v>
       </c>
       <c r="E14">
-        <v>8.198291772682561</v>
+        <v>7.829844362540782</v>
       </c>
       <c r="F14">
-        <v>48.68887654648164</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>38.58268051783872</v>
       </c>
       <c r="I14">
-        <v>31.49994411619159</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.767521778872664</v>
       </c>
       <c r="K14">
-        <v>21.53632418242062</v>
+        <v>21.898805039833</v>
       </c>
       <c r="L14">
-        <v>12.09736507227406</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>18.25700170888383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>17.66922803017971</v>
+      </c>
+      <c r="N14">
+        <v>12.26107835017546</v>
+      </c>
+      <c r="O14">
+        <v>27.66373915727331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.29460767074873</v>
+        <v>25.26495473139706</v>
       </c>
       <c r="C15">
-        <v>18.83497803897973</v>
+        <v>16.63098921653557</v>
       </c>
       <c r="D15">
-        <v>4.999862514347686</v>
+        <v>4.178044762482987</v>
       </c>
       <c r="E15">
-        <v>8.16994832985678</v>
+        <v>7.81485954627323</v>
       </c>
       <c r="F15">
-        <v>48.43714735277698</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>38.4344246777105</v>
       </c>
       <c r="I15">
-        <v>31.36580649788227</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.76760848720993</v>
       </c>
       <c r="K15">
-        <v>21.40799619314546</v>
+        <v>21.76955244986047</v>
       </c>
       <c r="L15">
-        <v>12.02217813020301</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>18.14880051170197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>17.56533154059941</v>
+      </c>
+      <c r="N15">
+        <v>12.29169805351384</v>
+      </c>
+      <c r="O15">
+        <v>27.56713272630713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.472898360134</v>
+        <v>24.39088957572925</v>
       </c>
       <c r="C16">
-        <v>18.15931844549222</v>
+        <v>16.05478649460317</v>
       </c>
       <c r="D16">
-        <v>4.998246605295539</v>
+        <v>4.115346277244587</v>
       </c>
       <c r="E16">
-        <v>8.008541606041749</v>
+        <v>7.729999400129241</v>
       </c>
       <c r="F16">
-        <v>46.99025912477012</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>37.58964707715181</v>
       </c>
       <c r="I16">
-        <v>30.59886887821162</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.769074088735461</v>
       </c>
       <c r="K16">
-        <v>20.6642045937274</v>
+        <v>21.01861358467848</v>
       </c>
       <c r="L16">
-        <v>11.58672235076014</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>17.52182650733511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.98071203044605</v>
+      </c>
+      <c r="N16">
+        <v>12.46797074816744</v>
+      </c>
+      <c r="O16">
+        <v>27.01880089788132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.95999529994679</v>
+        <v>23.84406046683857</v>
       </c>
       <c r="C17">
-        <v>17.73823541708402</v>
+        <v>15.69428281760917</v>
       </c>
       <c r="D17">
-        <v>4.998095484673207</v>
+        <v>4.076811441901683</v>
       </c>
       <c r="E17">
-        <v>7.910405432091972</v>
+        <v>7.678837516966146</v>
       </c>
       <c r="F17">
-        <v>46.09855434548765</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>37.07568560005245</v>
       </c>
       <c r="I17">
-        <v>30.12981498235038</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.770815457347669</v>
       </c>
       <c r="K17">
-        <v>20.20019805386327</v>
+        <v>20.54865577806914</v>
       </c>
       <c r="L17">
-        <v>11.31534982213044</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>17.13084094066883</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16.68900734102063</v>
+      </c>
+      <c r="N17">
+        <v>12.57683643819227</v>
+      </c>
+      <c r="O17">
+        <v>26.68708231267941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.66165844896847</v>
+        <v>23.52558012377994</v>
       </c>
       <c r="C18">
-        <v>17.49353329987815</v>
+        <v>15.48430705840727</v>
       </c>
       <c r="D18">
-        <v>4.998298039639464</v>
+        <v>4.054624574388907</v>
       </c>
       <c r="E18">
-        <v>7.854275063915958</v>
+        <v>7.649738224888898</v>
       </c>
       <c r="F18">
-        <v>45.58409649682699</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>36.7816422193124</v>
       </c>
       <c r="I18">
-        <v>29.86051512302085</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.772118074177276</v>
       </c>
       <c r="K18">
-        <v>19.93039446273426</v>
+        <v>20.27488407421423</v>
       </c>
       <c r="L18">
-        <v>11.18837745752548</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>16.90355005908841</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16.52026304057065</v>
+      </c>
+      <c r="N18">
+        <v>12.63972549693115</v>
+      </c>
+      <c r="O18">
+        <v>26.49798598451143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.56006680344226</v>
+        <v>23.41706310226953</v>
       </c>
       <c r="C19">
-        <v>17.41024317357235</v>
+        <v>15.41275832554528</v>
       </c>
       <c r="D19">
-        <v>4.998414599202263</v>
+        <v>4.047108958891568</v>
       </c>
       <c r="E19">
-        <v>7.835323664696875</v>
+        <v>7.639941816144101</v>
       </c>
       <c r="F19">
-        <v>45.40963451739239</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>36.68235500789626</v>
       </c>
       <c r="I19">
-        <v>29.7694154657106</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.77261003703467</v>
       </c>
       <c r="K19">
-        <v>19.83853457328294</v>
+        <v>20.18158973748773</v>
       </c>
       <c r="L19">
-        <v>11.14596932921539</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>16.82617364646507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16.46296532195959</v>
+      </c>
+      <c r="N19">
+        <v>12.66106592778543</v>
+      </c>
+      <c r="O19">
+        <v>26.4342519692503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.01493722357734</v>
+        <v>23.90267983463978</v>
       </c>
       <c r="C20">
-        <v>17.78331795612191</v>
+        <v>15.73292963349849</v>
       </c>
       <c r="D20">
-        <v>4.998081193096888</v>
+        <v>4.080915970483937</v>
       </c>
       <c r="E20">
-        <v>7.92081941912732</v>
+        <v>7.684249833341261</v>
       </c>
       <c r="F20">
-        <v>46.19363928199278</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>37.13023490471323</v>
       </c>
       <c r="I20">
-        <v>30.17969533102742</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.770598742967331</v>
       </c>
       <c r="K20">
-        <v>20.24989264199038</v>
+        <v>20.59904096041377</v>
       </c>
       <c r="L20">
-        <v>11.34440324598496</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>17.17270954224757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16.72015989686078</v>
+      </c>
+      <c r="N20">
+        <v>12.5652194229792</v>
+      </c>
+      <c r="O20">
+        <v>26.72221815256751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.50411020400132</v>
+        <v>25.48738643202034</v>
       </c>
       <c r="C21">
-        <v>19.00745643991891</v>
+        <v>16.7776188900838</v>
       </c>
       <c r="D21">
-        <v>5.000556062930234</v>
+        <v>4.194207576022649</v>
       </c>
       <c r="E21">
-        <v>8.211901663171254</v>
+        <v>7.83704797744377</v>
       </c>
       <c r="F21">
-        <v>48.80951458935106</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>38.65385884901584</v>
       </c>
       <c r="I21">
-        <v>31.56429975785999</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.767497655637023</v>
       </c>
       <c r="K21">
-        <v>21.59771569322898</v>
+        <v>21.96060597531791</v>
       </c>
       <c r="L21">
-        <v>12.13334009953721</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>18.30876749501933</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>17.71890478913064</v>
+      </c>
+      <c r="N21">
+        <v>12.24640944351821</v>
+      </c>
+      <c r="O21">
+        <v>27.71015874863684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.44974009111151</v>
+        <v>26.48908007329937</v>
       </c>
       <c r="C22">
-        <v>19.78708105282493</v>
+        <v>17.43796636158985</v>
       </c>
       <c r="D22">
-        <v>5.005182321356823</v>
+        <v>4.267978995269912</v>
       </c>
       <c r="E22">
-        <v>8.405170498263677</v>
+        <v>7.93987674302856</v>
       </c>
       <c r="F22">
-        <v>50.50698644958889</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>39.66377673334124</v>
       </c>
       <c r="I22">
-        <v>32.47460439764139</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.768337691668777</v>
       </c>
       <c r="K22">
-        <v>22.45447390215434</v>
+        <v>22.82079305576132</v>
       </c>
       <c r="L22">
-        <v>12.63579869355136</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>19.03137862744195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>18.41031236356378</v>
+      </c>
+      <c r="N22">
+        <v>12.04038107110406</v>
+      </c>
+      <c r="O22">
+        <v>28.37136015238494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.94746309192868</v>
+        <v>25.95750413719707</v>
       </c>
       <c r="C23">
-        <v>19.37274997709807</v>
+        <v>17.08752924217198</v>
       </c>
       <c r="D23">
-        <v>5.002415196074669</v>
+        <v>4.228633444486119</v>
       </c>
       <c r="E23">
-        <v>8.301728298202475</v>
+        <v>7.884720795195031</v>
       </c>
       <c r="F23">
-        <v>49.60200791905216</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>39.12345349258368</v>
       </c>
       <c r="I23">
-        <v>31.98819910167625</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.767617557139834</v>
       </c>
       <c r="K23">
-        <v>21.99931510464411</v>
+        <v>22.36435016805385</v>
       </c>
       <c r="L23">
-        <v>12.36876997755302</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>18.64744372245593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>18.04343567372487</v>
+      </c>
+      <c r="N23">
+        <v>12.15013257477922</v>
+      </c>
+      <c r="O23">
+        <v>28.01701867820836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.99010878470368</v>
+        <v>23.87619080546598</v>
       </c>
       <c r="C24">
-        <v>17.76294430813295</v>
+        <v>15.71546588223688</v>
       </c>
       <c r="D24">
-        <v>4.998086757339829</v>
+        <v>4.079060414050023</v>
       </c>
       <c r="E24">
-        <v>7.91611035619885</v>
+        <v>7.681801946425298</v>
       </c>
       <c r="F24">
-        <v>46.15065702081441</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>37.10556867902292</v>
       </c>
       <c r="I24">
-        <v>30.15714329659113</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.770695782497133</v>
       </c>
       <c r="K24">
-        <v>20.2274352075768</v>
+        <v>20.57627300387117</v>
       </c>
       <c r="L24">
-        <v>11.3312734363906</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>17.15378857600984</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16.70607906052649</v>
+      </c>
+      <c r="N24">
+        <v>12.57047053773609</v>
+      </c>
+      <c r="O24">
+        <v>26.70632821840427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.75063057790518</v>
+        <v>21.4792450985975</v>
       </c>
       <c r="C25">
-        <v>15.92985484460181</v>
+        <v>14.13471686955329</v>
       </c>
       <c r="D25">
-        <v>5.004304201257759</v>
+        <v>3.916920167600778</v>
       </c>
       <c r="E25">
-        <v>7.512182420023765</v>
+        <v>7.475438041014031</v>
       </c>
       <c r="F25">
-        <v>42.36786045408522</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>34.98949167599966</v>
       </c>
       <c r="I25">
-        <v>28.20071944545144</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.785434459965937</v>
       </c>
       <c r="K25">
-        <v>18.20374460008032</v>
+        <v>18.51452105221669</v>
       </c>
       <c r="L25">
-        <v>10.40649338080754</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>15.44996684330693</v>
+        <v>15.45820597619394</v>
+      </c>
+      <c r="N25">
+        <v>13.03437317026664</v>
+      </c>
+      <c r="O25">
+        <v>25.35751692781427</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.57776145713112</v>
+        <v>21.93844168700812</v>
       </c>
       <c r="C2">
-        <v>12.87949903438337</v>
+        <v>11.60954327571742</v>
       </c>
       <c r="D2">
-        <v>3.797334755993526</v>
+        <v>3.922725042635983</v>
       </c>
       <c r="E2">
-        <v>7.334054804718463</v>
+        <v>7.077065275608775</v>
       </c>
       <c r="F2">
-        <v>33.48503136662754</v>
+        <v>20.68170796462404</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.805215037122998</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.87619649205789</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.176991237037289</v>
       </c>
       <c r="M2">
-        <v>14.51098228887463</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.38571297410302</v>
+        <v>11.63390162751168</v>
       </c>
       <c r="O2">
-        <v>24.41925026899921</v>
+        <v>16.20183726068303</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.26263648681572</v>
+        <v>20.44589414324163</v>
       </c>
       <c r="C3">
-        <v>11.96977803507028</v>
+        <v>11.16161623748365</v>
       </c>
       <c r="D3">
-        <v>3.716473402306926</v>
+        <v>3.842924756305969</v>
       </c>
       <c r="E3">
-        <v>7.244751237892102</v>
+        <v>7.098690699639961</v>
       </c>
       <c r="F3">
-        <v>32.50066916443687</v>
+        <v>19.94012234273503</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.823788552493661</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.68822248190941</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.919926843520575</v>
       </c>
       <c r="M3">
-        <v>13.853795866804</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.6303311317229</v>
+        <v>11.80492189256995</v>
       </c>
       <c r="O3">
-        <v>23.81750884540575</v>
+        <v>15.84571670366537</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.45993809015928</v>
+        <v>19.47563157914551</v>
       </c>
       <c r="C4">
-        <v>11.38145333846228</v>
+        <v>10.87688016812905</v>
       </c>
       <c r="D4">
-        <v>3.667033146116944</v>
+        <v>3.792854432874136</v>
       </c>
       <c r="E4">
-        <v>7.193107806594715</v>
+        <v>7.117050836911916</v>
       </c>
       <c r="F4">
-        <v>31.91443320224679</v>
+        <v>19.49271788282082</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.837619872942389</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.9352549595649</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.761028987845169</v>
       </c>
       <c r="M4">
-        <v>13.44391531976516</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.78388328559631</v>
+        <v>11.913355749001</v>
       </c>
       <c r="O4">
-        <v>23.46489176292344</v>
+        <v>15.64052248393203</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.12481267896041</v>
+        <v>19.06661759492052</v>
       </c>
       <c r="C5">
-        <v>11.13413902252075</v>
+        <v>10.75851423087689</v>
       </c>
       <c r="D5">
-        <v>3.646957775265683</v>
+        <v>3.772197305744655</v>
       </c>
       <c r="E5">
-        <v>7.172861271289477</v>
+        <v>7.12576487736158</v>
       </c>
       <c r="F5">
-        <v>31.68023825040975</v>
+        <v>19.31263497186187</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.843849487696229</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.66124691844454</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.696101835339141</v>
       </c>
       <c r="M5">
-        <v>13.27549580841765</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.84732174127065</v>
+        <v>11.95840589185116</v>
       </c>
       <c r="O5">
-        <v>23.3254396988468</v>
+        <v>15.56030164589226</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.06868633059225</v>
+        <v>18.99787574355323</v>
       </c>
       <c r="C6">
-        <v>11.09261322159946</v>
+        <v>10.73872213222271</v>
       </c>
       <c r="D6">
-        <v>3.6436292041242</v>
+        <v>3.768752424748346</v>
       </c>
       <c r="E6">
-        <v>7.169547465649001</v>
+        <v>7.127284932274057</v>
       </c>
       <c r="F6">
-        <v>31.64163817752389</v>
+        <v>19.28287479369489</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.844919258816303</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.61539032653158</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.68531298591055</v>
       </c>
       <c r="M6">
-        <v>13.24745273945165</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.85790848840455</v>
+        <v>11.96593856617623</v>
       </c>
       <c r="O6">
-        <v>23.30253999062149</v>
+        <v>15.54718632177521</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.45545071066852</v>
+        <v>19.47017075203206</v>
       </c>
       <c r="C7">
-        <v>11.37814872027175</v>
+        <v>10.8752931401908</v>
       </c>
       <c r="D7">
-        <v>3.666762085086191</v>
+        <v>3.792576845642927</v>
       </c>
       <c r="E7">
-        <v>7.192831526404286</v>
+        <v>7.117163428518851</v>
       </c>
       <c r="F7">
-        <v>31.91125555667313</v>
+        <v>19.49027983166667</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.83770150758708</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.93158371123701</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.760153939525093</v>
       </c>
       <c r="M7">
-        <v>13.44164927995128</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.78473530985207</v>
+        <v>11.91395981709965</v>
       </c>
       <c r="O7">
-        <v>23.4629938864384</v>
+        <v>15.63942683545839</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.11225465476992</v>
+        <v>21.43493087197401</v>
       </c>
       <c r="C8">
-        <v>12.57194894980725</v>
+        <v>11.45717254917373</v>
       </c>
       <c r="D8">
-        <v>3.769421713749821</v>
+        <v>3.895442242868297</v>
       </c>
       <c r="E8">
-        <v>7.302599140373071</v>
+        <v>7.083439155889523</v>
       </c>
       <c r="F8">
-        <v>33.14193111063049</v>
+        <v>20.4245055734895</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.811104869885315</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>16.47463219427422</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.088627579544375</v>
       </c>
       <c r="M8">
-        <v>14.28582163692277</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.46937341317656</v>
+        <v>11.69215838118827</v>
       </c>
       <c r="O8">
-        <v>24.20827547664372</v>
+        <v>16.07626269803871</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.30751566685398</v>
+        <v>24.86473385698721</v>
       </c>
       <c r="C9">
-        <v>14.68108606091406</v>
+        <v>12.51724014220567</v>
       </c>
       <c r="D9">
-        <v>3.971605693942807</v>
+        <v>4.087966397921897</v>
       </c>
       <c r="E9">
-        <v>7.543300361503364</v>
+        <v>7.059717589315998</v>
       </c>
       <c r="F9">
-        <v>35.69414647637434</v>
+        <v>22.30950047343507</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.779026225815956</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>19.2273362384091</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.72078445664138</v>
       </c>
       <c r="M9">
-        <v>15.88322368927508</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.87664210170132</v>
+        <v>11.28441040866091</v>
       </c>
       <c r="O9">
-        <v>25.80331111359042</v>
+        <v>17.03873591253148</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.4527541820281</v>
+        <v>27.13246383572386</v>
       </c>
       <c r="C10">
-        <v>16.09557004031975</v>
+        <v>13.24233530491977</v>
       </c>
       <c r="D10">
-        <v>4.119740032865963</v>
+        <v>4.22296455296745</v>
       </c>
       <c r="E10">
-        <v>7.735881863797616</v>
+        <v>7.071056619743434</v>
       </c>
       <c r="F10">
-        <v>37.6485067086487</v>
+        <v>23.71489586220159</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.768916784494635</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>21.07177343285403</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.173808677011646</v>
       </c>
       <c r="M10">
-        <v>17.01386587833092</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.45558496395825</v>
+        <v>11.00153744685359</v>
       </c>
       <c r="O10">
-        <v>27.05688355889173</v>
+        <v>17.80863491089325</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.3867021472237</v>
+        <v>28.1106653163086</v>
       </c>
       <c r="C11">
-        <v>16.71124655361796</v>
+        <v>13.55985927888255</v>
       </c>
       <c r="D11">
-        <v>4.186881296148625</v>
+        <v>4.282820340472748</v>
       </c>
       <c r="E11">
-        <v>7.826974873706454</v>
+        <v>7.083099661054415</v>
       </c>
       <c r="F11">
-        <v>38.55431074195501</v>
+        <v>24.35671797296761</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.767534547931838</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>21.87412723125812</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.376743455354781</v>
       </c>
       <c r="M11">
-        <v>17.64939147084428</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.26693069331038</v>
+        <v>10.87654104261872</v>
       </c>
       <c r="O11">
-        <v>27.64524446364479</v>
+        <v>18.17208920833373</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.73451739358849</v>
+        <v>28.47351587396838</v>
       </c>
       <c r="C12">
-        <v>16.94053141284101</v>
+        <v>13.67828313597221</v>
       </c>
       <c r="D12">
-        <v>4.212260228000058</v>
+        <v>4.305250647081043</v>
       </c>
       <c r="E12">
-        <v>7.861977874937785</v>
+        <v>7.088703230387557</v>
       </c>
       <c r="F12">
-        <v>38.8997377868111</v>
+        <v>24.59999268405226</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.767500529646327</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>22.1728547462195</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.453092944264586</v>
       </c>
       <c r="M12">
-        <v>17.88951241354822</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.19589220043537</v>
+        <v>10.82974701674799</v>
       </c>
       <c r="O12">
-        <v>27.87069945989875</v>
+        <v>18.31158757789343</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.65986629451221</v>
+        <v>28.39570459746577</v>
       </c>
       <c r="C13">
-        <v>16.89132011613024</v>
+        <v>13.65285976967452</v>
       </c>
       <c r="D13">
-        <v>4.206796608854753</v>
+        <v>4.300430546779788</v>
       </c>
       <c r="E13">
-        <v>7.854416623682443</v>
+        <v>7.087449157362788</v>
       </c>
       <c r="F13">
-        <v>38.82523560730417</v>
+        <v>24.54759058048388</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.767485637585428</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>22.10874268001755</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.436672456424258</v>
       </c>
       <c r="M13">
-        <v>17.83797883130676</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.21117397363539</v>
+        <v>10.83980077202992</v>
       </c>
       <c r="O13">
-        <v>27.82202443822775</v>
+        <v>18.28146160709286</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.41543327332332</v>
+        <v>28.14066840460172</v>
       </c>
       <c r="C14">
-        <v>16.73018646079269</v>
+        <v>13.56963867972863</v>
       </c>
       <c r="D14">
-        <v>4.188970209949922</v>
+        <v>4.284670486153046</v>
       </c>
       <c r="E14">
-        <v>7.829844362540782</v>
+        <v>7.083539458325845</v>
       </c>
       <c r="F14">
-        <v>38.58268051783872</v>
+        <v>24.37672833382029</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.767521778872664</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>21.898805039833</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.383034967906434</v>
       </c>
       <c r="M14">
-        <v>17.66922803017971</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.26107835017546</v>
+        <v>10.87268039373471</v>
       </c>
       <c r="O14">
-        <v>27.66373915727331</v>
+        <v>18.18352860371695</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.26495473139706</v>
+        <v>27.98346834538324</v>
       </c>
       <c r="C15">
-        <v>16.63098921653557</v>
+        <v>13.51842580591288</v>
       </c>
       <c r="D15">
-        <v>4.178044762482987</v>
+        <v>4.274985947723384</v>
       </c>
       <c r="E15">
-        <v>7.81485954627323</v>
+        <v>7.081282085343251</v>
       </c>
       <c r="F15">
-        <v>38.4344246777105</v>
+        <v>24.27209702005436</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.76760848720993</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>21.76955244986047</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.350114497412367</v>
       </c>
       <c r="M15">
-        <v>17.56533154059941</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.29169805351384</v>
+        <v>10.892890693997</v>
       </c>
       <c r="O15">
-        <v>27.56713272630713</v>
+        <v>18.12378388962857</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.39088957572925</v>
+        <v>27.06747046042076</v>
       </c>
       <c r="C16">
-        <v>16.05478649460317</v>
+        <v>13.22133242355225</v>
       </c>
       <c r="D16">
-        <v>4.115346277244587</v>
+        <v>4.219020476383209</v>
       </c>
       <c r="E16">
-        <v>7.729999400129241</v>
+        <v>7.070412647232119</v>
       </c>
       <c r="F16">
-        <v>37.58964707715181</v>
+        <v>23.67298985145416</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.769074088735461</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>21.01861358467848</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.160479018380361</v>
       </c>
       <c r="M16">
-        <v>16.98071203044605</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.46797074816744</v>
+        <v>11.00978114570738</v>
       </c>
       <c r="O16">
-        <v>27.01880089788132</v>
+        <v>17.7851452499841</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.84406046683857</v>
+        <v>26.49193222894976</v>
       </c>
       <c r="C17">
-        <v>15.69428281760917</v>
+        <v>13.03588444435903</v>
       </c>
       <c r="D17">
-        <v>4.076811441901683</v>
+        <v>4.184280112084496</v>
       </c>
       <c r="E17">
-        <v>7.678837516966146</v>
+        <v>7.06554559664893</v>
       </c>
       <c r="F17">
-        <v>37.07568560005245</v>
+        <v>23.30599576749282</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.770815457347669</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>20.54865577806914</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.043302607075317</v>
       </c>
       <c r="M17">
-        <v>16.68900734102063</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.57683643819227</v>
+        <v>11.08243917117387</v>
       </c>
       <c r="O17">
-        <v>26.68708231267941</v>
+        <v>17.58076136064939</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.52558012377994</v>
+        <v>26.15586499460952</v>
       </c>
       <c r="C18">
-        <v>15.48430705840727</v>
+        <v>12.92806145362061</v>
       </c>
       <c r="D18">
-        <v>4.054624574388907</v>
+        <v>4.164152612733088</v>
       </c>
       <c r="E18">
-        <v>7.649738224888898</v>
+        <v>7.063391025067086</v>
       </c>
       <c r="F18">
-        <v>36.7816422193124</v>
+        <v>23.09515163169162</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.772118074177276</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>20.27488407421423</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.975611587623701</v>
       </c>
       <c r="M18">
-        <v>16.52026304057065</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.63972549693115</v>
+        <v>11.12457615425091</v>
       </c>
       <c r="O18">
-        <v>26.49798598451143</v>
+        <v>17.46445168509862</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.41706310226953</v>
+        <v>26.04121085247681</v>
       </c>
       <c r="C19">
-        <v>15.41275832554528</v>
+        <v>12.89135699892575</v>
       </c>
       <c r="D19">
-        <v>4.047108958891568</v>
+        <v>4.157313138902671</v>
       </c>
       <c r="E19">
-        <v>7.639941816144101</v>
+        <v>7.062770664085266</v>
       </c>
       <c r="F19">
-        <v>36.68235500789626</v>
+        <v>23.02380929421784</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.77261003703467</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>20.18158973748773</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.95264355302198</v>
       </c>
       <c r="M19">
-        <v>16.46296532195959</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.66106592778543</v>
+        <v>11.13890219217609</v>
       </c>
       <c r="O19">
-        <v>26.4342519692503</v>
+        <v>17.42528648918154</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.90267983463978</v>
+        <v>26.55371938642009</v>
       </c>
       <c r="C20">
-        <v>15.73292963349849</v>
+        <v>13.05574591434729</v>
       </c>
       <c r="D20">
-        <v>4.080915970483937</v>
+        <v>4.18799345986938</v>
       </c>
       <c r="E20">
-        <v>7.684249833341261</v>
+        <v>7.065996582281888</v>
       </c>
       <c r="F20">
-        <v>37.13023490471323</v>
+        <v>23.34503899057919</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.770598742967331</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>20.59904096041377</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.055807043791507</v>
       </c>
       <c r="M20">
-        <v>16.72015989686078</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.5652194229792</v>
+        <v>11.07466872898896</v>
       </c>
       <c r="O20">
-        <v>26.72221815256751</v>
+        <v>17.60238963834196</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.48738643202034</v>
+        <v>28.21578338328153</v>
       </c>
       <c r="C21">
-        <v>16.7776188900838</v>
+        <v>13.59413230020413</v>
       </c>
       <c r="D21">
-        <v>4.194207576022649</v>
+        <v>4.289306088071682</v>
       </c>
       <c r="E21">
-        <v>7.83704797744377</v>
+        <v>7.084659095883563</v>
       </c>
       <c r="F21">
-        <v>38.65385884901584</v>
+        <v>24.42690932897337</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.767497655637023</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>21.96060597531791</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.398803411343689</v>
       </c>
       <c r="M21">
-        <v>17.71890478913064</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.24640944351821</v>
+        <v>10.86300812103669</v>
       </c>
       <c r="O21">
-        <v>27.71015874863684</v>
+        <v>18.21224350569699</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.48908007329937</v>
+        <v>29.25794880979668</v>
       </c>
       <c r="C22">
-        <v>17.43796636158985</v>
+        <v>13.93540320450153</v>
       </c>
       <c r="D22">
-        <v>4.267978995269912</v>
+        <v>4.354140584173629</v>
       </c>
       <c r="E22">
-        <v>7.93987674302856</v>
+        <v>7.102961259802434</v>
       </c>
       <c r="F22">
-        <v>39.66377673334124</v>
+        <v>25.13528126112141</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.768337691668777</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>22.82079305576132</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.620057299839054</v>
       </c>
       <c r="M22">
-        <v>18.41031236356378</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>12.04038107110406</v>
+        <v>10.72782640454347</v>
       </c>
       <c r="O22">
-        <v>28.37136015238494</v>
+        <v>18.62168415733411</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.95750413719707</v>
+        <v>28.70572354801527</v>
       </c>
       <c r="C23">
-        <v>17.08752924217198</v>
+        <v>13.7542417287333</v>
       </c>
       <c r="D23">
-        <v>4.228633444486119</v>
+        <v>4.319667104492463</v>
       </c>
       <c r="E23">
-        <v>7.884720795195031</v>
+        <v>7.092616765030455</v>
       </c>
       <c r="F23">
-        <v>39.12345349258368</v>
+        <v>24.75712454308889</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.767617557139834</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>22.36435016805385</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.502248963112192</v>
       </c>
       <c r="M23">
-        <v>18.04343567372487</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12.15013257477922</v>
+        <v>10.79968315590892</v>
       </c>
       <c r="O23">
-        <v>28.01701867820836</v>
+        <v>18.40217365178714</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.87619080546598</v>
+        <v>26.52580156323833</v>
       </c>
       <c r="C24">
-        <v>15.71546588223688</v>
+        <v>13.04677029828338</v>
       </c>
       <c r="D24">
-        <v>4.079060414050023</v>
+        <v>4.186315136577456</v>
       </c>
       <c r="E24">
-        <v>7.681801946425298</v>
+        <v>7.06579069114506</v>
       </c>
       <c r="F24">
-        <v>37.10556867902292</v>
+        <v>23.3273870855674</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.770695782497133</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>20.57627300387117</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.050154795935766</v>
       </c>
       <c r="M24">
-        <v>16.70607906052649</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.57047053773609</v>
+        <v>11.07818060995908</v>
       </c>
       <c r="O24">
-        <v>26.70632821840427</v>
+        <v>17.59260777420253</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.4792450985975</v>
+        <v>23.98158931717854</v>
       </c>
       <c r="C25">
-        <v>14.13471686955329</v>
+        <v>12.23963385083389</v>
       </c>
       <c r="D25">
-        <v>3.916920167600778</v>
+        <v>4.036958910751899</v>
       </c>
       <c r="E25">
-        <v>7.475438041014031</v>
+        <v>7.061296484896038</v>
       </c>
       <c r="F25">
-        <v>34.98949167599966</v>
+        <v>21.79519522151939</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.785434459965937</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>18.51452105221669</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.551512982293048</v>
       </c>
       <c r="M25">
-        <v>15.45820597619394</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>13.03437317026664</v>
+        <v>11.39179914025692</v>
       </c>
       <c r="O25">
-        <v>25.35751692781427</v>
+        <v>16.76719282346993</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.93844168700812</v>
+        <v>16.38160980024002</v>
       </c>
       <c r="C2">
-        <v>11.60954327571742</v>
+        <v>10.18239560898669</v>
       </c>
       <c r="D2">
-        <v>3.922725042635983</v>
+        <v>4.804074217130817</v>
       </c>
       <c r="E2">
-        <v>7.077065275608775</v>
+        <v>11.72429133267088</v>
       </c>
       <c r="F2">
-        <v>20.68170796462404</v>
+        <v>25.209466717431</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.176991237037289</v>
+        <v>9.711364670693241</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.63390162751168</v>
+        <v>17.31939639268868</v>
       </c>
       <c r="O2">
-        <v>16.20183726068303</v>
+        <v>22.41874780881981</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.44589414324163</v>
+        <v>15.86753923791693</v>
       </c>
       <c r="C3">
-        <v>11.16161623748365</v>
+        <v>10.01151163393854</v>
       </c>
       <c r="D3">
-        <v>3.842924756305969</v>
+        <v>4.779721577372545</v>
       </c>
       <c r="E3">
-        <v>7.098690699639961</v>
+        <v>11.76251506379261</v>
       </c>
       <c r="F3">
-        <v>19.94012234273503</v>
+        <v>25.16341593570551</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.919926843520575</v>
+        <v>9.686041345469683</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.80492189256995</v>
+        <v>17.37509038927625</v>
       </c>
       <c r="O3">
-        <v>15.84571670366537</v>
+        <v>22.44492829154824</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.47563157914551</v>
+        <v>15.54586572981079</v>
       </c>
       <c r="C4">
-        <v>10.87688016812905</v>
+        <v>9.904265538810877</v>
       </c>
       <c r="D4">
-        <v>3.792854432874136</v>
+        <v>4.764547223297554</v>
       </c>
       <c r="E4">
-        <v>7.117050836911916</v>
+        <v>11.78801211125578</v>
       </c>
       <c r="F4">
-        <v>19.49271788282082</v>
+        <v>25.14310705785135</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.761028987845169</v>
+        <v>9.67221077199236</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.913355749001</v>
+        <v>17.41115727559882</v>
       </c>
       <c r="O4">
-        <v>15.64052248393203</v>
+        <v>22.46722242028549</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.06661759492052</v>
+        <v>15.41347028136321</v>
       </c>
       <c r="C5">
-        <v>10.75851423087689</v>
+        <v>9.860012208264811</v>
       </c>
       <c r="D5">
-        <v>3.772197305744655</v>
+        <v>4.758309742973792</v>
       </c>
       <c r="E5">
-        <v>7.12576487736158</v>
+        <v>11.79891187238882</v>
       </c>
       <c r="F5">
-        <v>19.31263497186187</v>
+        <v>25.13683911752361</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.696101835339141</v>
+        <v>9.667010711863369</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.95840589185116</v>
+        <v>17.42632624371673</v>
       </c>
       <c r="O5">
-        <v>15.56030164589226</v>
+        <v>22.47786733923469</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.99787574355323</v>
+        <v>15.39141326314754</v>
       </c>
       <c r="C6">
-        <v>10.73872213222271</v>
+        <v>9.852631805290359</v>
       </c>
       <c r="D6">
-        <v>3.768752424748346</v>
+        <v>4.757270821126895</v>
       </c>
       <c r="E6">
-        <v>7.127284932274057</v>
+        <v>11.80075253267914</v>
       </c>
       <c r="F6">
-        <v>19.28287479369489</v>
+        <v>25.13591971222768</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.68531298591055</v>
+        <v>9.666173688873815</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.96593856617623</v>
+        <v>17.42887354318459</v>
       </c>
       <c r="O6">
-        <v>15.54718632177521</v>
+        <v>22.47972900130833</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.47017075203206</v>
+        <v>15.5440852228016</v>
       </c>
       <c r="C7">
-        <v>10.8752931401908</v>
+        <v>9.903670902241812</v>
       </c>
       <c r="D7">
-        <v>3.792576845642927</v>
+        <v>4.764463317760621</v>
       </c>
       <c r="E7">
-        <v>7.117163428518851</v>
+        <v>11.7881570467076</v>
       </c>
       <c r="F7">
-        <v>19.49027983166667</v>
+        <v>25.14301439082789</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.760153939525093</v>
+        <v>9.672138871784123</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.91395981709965</v>
+        <v>17.4113599394496</v>
       </c>
       <c r="O7">
-        <v>15.63942683545839</v>
+        <v>22.46735967136174</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.43493087197401</v>
+        <v>16.20572898777996</v>
       </c>
       <c r="C8">
-        <v>11.45717254917373</v>
+        <v>10.12397711324731</v>
       </c>
       <c r="D8">
-        <v>3.895442242868297</v>
+        <v>4.795724615319331</v>
       </c>
       <c r="E8">
-        <v>7.083439155889523</v>
+        <v>11.7370498675609</v>
       </c>
       <c r="F8">
-        <v>20.4245055734895</v>
+        <v>25.19193855231795</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.088627579544375</v>
+        <v>9.702279116006544</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.69215838118827</v>
+        <v>17.33821208352214</v>
       </c>
       <c r="O8">
-        <v>16.07626269803871</v>
+        <v>22.42648186900571</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.86473385698721</v>
+        <v>17.44709633362994</v>
       </c>
       <c r="C9">
-        <v>12.51724014220567</v>
+        <v>10.53612478726978</v>
       </c>
       <c r="D9">
-        <v>4.087966397921897</v>
+        <v>4.855184124267859</v>
       </c>
       <c r="E9">
-        <v>7.059717589315998</v>
+        <v>11.6529308673943</v>
       </c>
       <c r="F9">
-        <v>22.30950047343507</v>
+        <v>25.3507730157404</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.72078445664138</v>
+        <v>9.774824328275582</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.28441040866091</v>
+        <v>17.20956346224821</v>
       </c>
       <c r="O9">
-        <v>17.03873591253148</v>
+        <v>22.39581291220269</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.13246383572386</v>
+        <v>18.31499493306893</v>
       </c>
       <c r="C10">
-        <v>13.24233530491977</v>
+        <v>10.8249836183718</v>
       </c>
       <c r="D10">
-        <v>4.22296455296745</v>
+        <v>4.897633674535985</v>
       </c>
       <c r="E10">
-        <v>7.071056619743434</v>
+        <v>11.60096446137804</v>
       </c>
       <c r="F10">
-        <v>23.71489586220159</v>
+        <v>25.50523847229383</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.173808677011646</v>
+        <v>9.836037006778545</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.00153744685359</v>
+        <v>17.12399764355793</v>
       </c>
       <c r="O10">
-        <v>17.80863491089325</v>
+        <v>22.40360266226554</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.1106653163086</v>
+        <v>18.69845852675737</v>
       </c>
       <c r="C11">
-        <v>13.55985927888255</v>
+        <v>10.95300663760578</v>
       </c>
       <c r="D11">
-        <v>4.282820340472748</v>
+        <v>4.916653289882337</v>
       </c>
       <c r="E11">
-        <v>7.083099661054415</v>
+        <v>11.57946346187444</v>
       </c>
       <c r="F11">
-        <v>24.35671797296761</v>
+        <v>25.58354111756772</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.376743455354781</v>
+        <v>9.865535496712408</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.87654104261872</v>
+        <v>17.08700162297917</v>
       </c>
       <c r="O11">
-        <v>18.17208920833373</v>
+        <v>22.41374512255913</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.47351587396838</v>
+        <v>18.84190612434574</v>
       </c>
       <c r="C12">
-        <v>13.67828313597221</v>
+        <v>11.00097162362306</v>
       </c>
       <c r="D12">
-        <v>4.305250647081043</v>
+        <v>4.923811672917423</v>
       </c>
       <c r="E12">
-        <v>7.088703230387557</v>
+        <v>11.57162949955323</v>
       </c>
       <c r="F12">
-        <v>24.59999268405226</v>
+        <v>25.61433008646884</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.453092944264586</v>
+        <v>9.876937203541077</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.82974701674799</v>
+        <v>17.07326848758353</v>
       </c>
       <c r="O12">
-        <v>18.31158757789343</v>
+        <v>22.41853435160069</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.39570459746577</v>
+        <v>18.81109239058175</v>
       </c>
       <c r="C13">
-        <v>13.65285976967452</v>
+        <v>10.99066482644747</v>
       </c>
       <c r="D13">
-        <v>4.300430546779788</v>
+        <v>4.922271974288065</v>
       </c>
       <c r="E13">
-        <v>7.087449157362788</v>
+        <v>11.57330297817066</v>
       </c>
       <c r="F13">
-        <v>24.54759058048388</v>
+        <v>25.60764885205502</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.436672456424258</v>
+        <v>9.874471460955164</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.83980077202992</v>
+        <v>17.07621388159733</v>
       </c>
       <c r="O13">
-        <v>18.28146160709286</v>
+        <v>22.41746073705293</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.14066840460172</v>
+        <v>18.71029604893467</v>
       </c>
       <c r="C14">
-        <v>13.56963867972863</v>
+        <v>10.95696321552788</v>
       </c>
       <c r="D14">
-        <v>4.284670486153046</v>
+        <v>4.91724310682964</v>
       </c>
       <c r="E14">
-        <v>7.083539458325845</v>
+        <v>11.57881278179713</v>
       </c>
       <c r="F14">
-        <v>24.37672833382029</v>
+        <v>25.58605145906721</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.383034967906434</v>
+        <v>9.866468924610924</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.87268039373471</v>
+        <v>17.0858662537808</v>
       </c>
       <c r="O14">
-        <v>18.18352860371695</v>
+        <v>22.41412013161664</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.98346834538324</v>
+        <v>18.64832233372126</v>
       </c>
       <c r="C15">
-        <v>13.51842580591288</v>
+        <v>10.93625217875786</v>
       </c>
       <c r="D15">
-        <v>4.274985947723384</v>
+        <v>4.914156996832098</v>
       </c>
       <c r="E15">
-        <v>7.081282085343251</v>
+        <v>11.58222781927844</v>
       </c>
       <c r="F15">
-        <v>24.27209702005436</v>
+        <v>25.57296999121986</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.350114497412367</v>
+        <v>9.861597063718547</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.892890693997</v>
+        <v>17.09181458873169</v>
       </c>
       <c r="O15">
-        <v>18.12378388962857</v>
+        <v>22.41219740897682</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.06747046042076</v>
+        <v>18.28969490455124</v>
       </c>
       <c r="C16">
-        <v>13.22133242355225</v>
+        <v>10.81654652166827</v>
       </c>
       <c r="D16">
-        <v>4.219020476383209</v>
+        <v>4.89638466439376</v>
       </c>
       <c r="E16">
-        <v>7.070412647232119</v>
+        <v>11.60241267832618</v>
       </c>
       <c r="F16">
-        <v>23.67298985145416</v>
+        <v>25.50028141175169</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.160479018380361</v>
+        <v>9.834141927751967</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.00978114570738</v>
+        <v>17.12645415109045</v>
       </c>
       <c r="O16">
-        <v>17.7851452499841</v>
+        <v>22.40307260082283</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.49193222894976</v>
+        <v>18.06668512887184</v>
       </c>
       <c r="C17">
-        <v>13.03588444435903</v>
+        <v>10.74222442694665</v>
       </c>
       <c r="D17">
-        <v>4.184280112084496</v>
+        <v>4.885405909066021</v>
       </c>
       <c r="E17">
-        <v>7.06554559664893</v>
+        <v>11.61534354890012</v>
       </c>
       <c r="F17">
-        <v>23.30599576749282</v>
+        <v>25.45773525419241</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.043302607075317</v>
+        <v>9.817717921181384</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.08243917117387</v>
+        <v>17.14819768412922</v>
       </c>
       <c r="O17">
-        <v>17.58076136064939</v>
+        <v>22.39916495663617</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.15586499460952</v>
+        <v>17.93735452347726</v>
       </c>
       <c r="C18">
-        <v>12.92806145362061</v>
+        <v>10.69915975231879</v>
       </c>
       <c r="D18">
-        <v>4.164152612733088</v>
+        <v>4.879063963711205</v>
       </c>
       <c r="E18">
-        <v>7.063391025067086</v>
+        <v>11.62298232970399</v>
       </c>
       <c r="F18">
-        <v>23.09515163169162</v>
+        <v>25.43402138970402</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.975611587623701</v>
+        <v>9.808427213557799</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.12457615425091</v>
+        <v>17.1608855380464</v>
       </c>
       <c r="O18">
-        <v>17.46445168509862</v>
+        <v>22.3975385822614</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.04121085247681</v>
+        <v>17.89338732059317</v>
       </c>
       <c r="C19">
-        <v>12.89135699892575</v>
+        <v>10.68452531611376</v>
       </c>
       <c r="D19">
-        <v>4.157313138902671</v>
+        <v>4.87691207303765</v>
       </c>
       <c r="E19">
-        <v>7.062770664085266</v>
+        <v>11.62560324694326</v>
       </c>
       <c r="F19">
-        <v>23.02380929421784</v>
+        <v>25.42612290931462</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.95264355302198</v>
+        <v>9.805308512121453</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.13890219217609</v>
+        <v>17.16521263435213</v>
       </c>
       <c r="O19">
-        <v>17.42528648918154</v>
+        <v>22.39709460874881</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.55371938642009</v>
+        <v>18.09053572516753</v>
       </c>
       <c r="C20">
-        <v>13.05574591434729</v>
+        <v>10.75016911616619</v>
       </c>
       <c r="D20">
-        <v>4.18799345986938</v>
+        <v>4.88657745242769</v>
       </c>
       <c r="E20">
-        <v>7.065996582281888</v>
+        <v>11.61394620003782</v>
       </c>
       <c r="F20">
-        <v>23.34503899057919</v>
+        <v>25.46218608462895</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.055807043791507</v>
+        <v>9.819450189906915</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.07466872898896</v>
+        <v>17.1458642643939</v>
       </c>
       <c r="O20">
-        <v>17.60238963834196</v>
+        <v>22.39951664023458</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.21578338328153</v>
+        <v>18.73995115648642</v>
       </c>
       <c r="C21">
-        <v>13.59413230020413</v>
+        <v>10.96687637917998</v>
       </c>
       <c r="D21">
-        <v>4.289306088071682</v>
+        <v>4.91872141610588</v>
       </c>
       <c r="E21">
-        <v>7.084659095883563</v>
+        <v>11.57718605639851</v>
       </c>
       <c r="F21">
-        <v>24.42690932897337</v>
+        <v>25.59236442088519</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.398803411343689</v>
+        <v>9.868813239252304</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.86300812103669</v>
+        <v>17.08302362170183</v>
       </c>
       <c r="O21">
-        <v>18.21224350569699</v>
+        <v>22.41507561426786</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.25794880979668</v>
+        <v>19.15406241053289</v>
       </c>
       <c r="C22">
-        <v>13.93540320450153</v>
+        <v>11.10549584522887</v>
       </c>
       <c r="D22">
-        <v>4.354140584173629</v>
+        <v>4.939472316881353</v>
       </c>
       <c r="E22">
-        <v>7.102961259802434</v>
+        <v>11.55495663310821</v>
       </c>
       <c r="F22">
-        <v>25.13528126112141</v>
+        <v>25.68406362456014</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.620057299839054</v>
+        <v>9.902419684276742</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.72782640454347</v>
+        <v>17.04356465002662</v>
       </c>
       <c r="O22">
-        <v>18.62168415733411</v>
+        <v>22.43077203741152</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.70572354801527</v>
+        <v>18.9340269707277</v>
       </c>
       <c r="C23">
-        <v>13.7542417287333</v>
+        <v>11.03179653963222</v>
       </c>
       <c r="D23">
-        <v>4.319667104492463</v>
+        <v>4.928421380498638</v>
       </c>
       <c r="E23">
-        <v>7.092616765030455</v>
+        <v>11.56665646612094</v>
       </c>
       <c r="F23">
-        <v>24.75712454308889</v>
+        <v>25.63452279002142</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.502248963112192</v>
+        <v>9.884362423331353</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.79968315590892</v>
+        <v>17.06447750582897</v>
       </c>
       <c r="O23">
-        <v>18.40217365178714</v>
+        <v>22.42188914826821</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.52580156323833</v>
+        <v>18.07975634695645</v>
       </c>
       <c r="C24">
-        <v>13.04677029828338</v>
+        <v>10.74657836631696</v>
       </c>
       <c r="D24">
-        <v>4.186315136577456</v>
+        <v>4.8860478912973</v>
       </c>
       <c r="E24">
-        <v>7.06579069114506</v>
+        <v>11.6145773040244</v>
       </c>
       <c r="F24">
-        <v>23.3273870855674</v>
+        <v>25.46017153754996</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.050154795935766</v>
+        <v>9.818666558297682</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.07818060995908</v>
+        <v>17.14691862023171</v>
       </c>
       <c r="O24">
-        <v>17.59260777420253</v>
+        <v>22.39935571219244</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.98158931717854</v>
+        <v>17.11836764929001</v>
       </c>
       <c r="C25">
-        <v>12.23963385083389</v>
+        <v>10.42695016197703</v>
       </c>
       <c r="D25">
-        <v>4.036958910751899</v>
+        <v>4.839307638974097</v>
       </c>
       <c r="E25">
-        <v>7.061296484896038</v>
+        <v>11.67396139963754</v>
       </c>
       <c r="F25">
-        <v>21.79519522151939</v>
+        <v>25.30112088613869</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.551512982293048</v>
+        <v>9.753787459348466</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.39179914025692</v>
+        <v>17.24278948507242</v>
       </c>
       <c r="O25">
-        <v>16.76719282346993</v>
+        <v>22.3987922831303</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.38160980024002</v>
+        <v>21.93844168700818</v>
       </c>
       <c r="C2">
-        <v>10.18239560898669</v>
+        <v>11.60954327571721</v>
       </c>
       <c r="D2">
-        <v>4.804074217130817</v>
+        <v>3.922725042636094</v>
       </c>
       <c r="E2">
-        <v>11.72429133267088</v>
+        <v>7.077065275608778</v>
       </c>
       <c r="F2">
-        <v>25.209466717431</v>
+        <v>20.68170796462399</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.711364670693241</v>
+        <v>7.176991237037349</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.31939639268868</v>
+        <v>11.63390162751164</v>
       </c>
       <c r="O2">
-        <v>22.41874780881981</v>
+        <v>16.201837260683</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.86753923791693</v>
+        <v>20.4458941432416</v>
       </c>
       <c r="C3">
-        <v>10.01151163393854</v>
+        <v>11.16161623748349</v>
       </c>
       <c r="D3">
-        <v>4.779721577372545</v>
+        <v>3.842924756305969</v>
       </c>
       <c r="E3">
-        <v>11.76251506379261</v>
+        <v>7.098690699639837</v>
       </c>
       <c r="F3">
-        <v>25.16341593570551</v>
+        <v>19.94012234273513</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.686041345469683</v>
+        <v>6.919926843520549</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.37509038927625</v>
+        <v>11.80492189256995</v>
       </c>
       <c r="O3">
-        <v>22.44492829154824</v>
+        <v>15.84571670366543</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.54586572981079</v>
+        <v>19.47563157914546</v>
       </c>
       <c r="C4">
-        <v>9.904265538810877</v>
+        <v>10.87688016812914</v>
       </c>
       <c r="D4">
-        <v>4.764547223297554</v>
+        <v>3.792854432874189</v>
       </c>
       <c r="E4">
-        <v>11.78801211125578</v>
+        <v>7.117050836911922</v>
       </c>
       <c r="F4">
-        <v>25.14310705785135</v>
+        <v>19.49271788282086</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.67221077199236</v>
+        <v>6.761028987845139</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.41115727559882</v>
+        <v>11.91335574900107</v>
       </c>
       <c r="O4">
-        <v>22.46722242028549</v>
+        <v>15.64052248393211</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.41347028136321</v>
+        <v>19.0666175949205</v>
       </c>
       <c r="C5">
-        <v>9.860012208264811</v>
+        <v>10.75851423087693</v>
       </c>
       <c r="D5">
-        <v>4.758309742973792</v>
+        <v>3.772197305744763</v>
       </c>
       <c r="E5">
-        <v>11.79891187238882</v>
+        <v>7.125764877361633</v>
       </c>
       <c r="F5">
-        <v>25.13683911752361</v>
+        <v>19.31263497186178</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.667010711863369</v>
+        <v>6.696101835339184</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.42632624371673</v>
+        <v>11.95840589185116</v>
       </c>
       <c r="O5">
-        <v>22.47786733923469</v>
+        <v>15.5603016458922</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.39141326314754</v>
+        <v>18.99787574355315</v>
       </c>
       <c r="C6">
-        <v>9.852631805290359</v>
+        <v>10.73872213222279</v>
       </c>
       <c r="D6">
-        <v>4.757270821126895</v>
+        <v>3.768752424748466</v>
       </c>
       <c r="E6">
-        <v>11.80075253267914</v>
+        <v>7.127284932274121</v>
       </c>
       <c r="F6">
-        <v>25.13591971222768</v>
+        <v>19.28287479369492</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.666173688873815</v>
+        <v>6.68531298591055</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.42887354318459</v>
+        <v>11.96593856617619</v>
       </c>
       <c r="O6">
-        <v>22.47972900130833</v>
+        <v>15.54718632177527</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.5440852228016</v>
+        <v>19.47017075203214</v>
       </c>
       <c r="C7">
-        <v>9.903670902241812</v>
+        <v>10.87529314019073</v>
       </c>
       <c r="D7">
-        <v>4.764463317760621</v>
+        <v>3.792576845642688</v>
       </c>
       <c r="E7">
-        <v>11.7881570467076</v>
+        <v>7.117163428518793</v>
       </c>
       <c r="F7">
-        <v>25.14301439082789</v>
+        <v>19.49027983166656</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.672138871784123</v>
+        <v>6.760153939525061</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.4113599394496</v>
+        <v>11.91395981709951</v>
       </c>
       <c r="O7">
-        <v>22.46735967136174</v>
+        <v>15.6394268354582</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.20572898777996</v>
+        <v>21.43493087197396</v>
       </c>
       <c r="C8">
-        <v>10.12397711324731</v>
+        <v>11.45717254917386</v>
       </c>
       <c r="D8">
-        <v>4.795724615319331</v>
+        <v>3.895442242868422</v>
       </c>
       <c r="E8">
-        <v>11.7370498675609</v>
+        <v>7.083439155889518</v>
       </c>
       <c r="F8">
-        <v>25.19193855231795</v>
+        <v>20.42450557348944</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.702279116006544</v>
+        <v>7.088627579544345</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.33821208352214</v>
+        <v>11.69215838118828</v>
       </c>
       <c r="O8">
-        <v>22.42648186900571</v>
+        <v>16.07626269803866</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.44709633362994</v>
+        <v>24.86473385698721</v>
       </c>
       <c r="C9">
-        <v>10.53612478726978</v>
+        <v>12.51724014220584</v>
       </c>
       <c r="D9">
-        <v>4.855184124267859</v>
+        <v>4.08796639792195</v>
       </c>
       <c r="E9">
-        <v>11.6529308673943</v>
+        <v>7.05971758931595</v>
       </c>
       <c r="F9">
-        <v>25.3507730157404</v>
+        <v>22.30950047343502</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.774824328275582</v>
+        <v>7.720784456641345</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.20956346224821</v>
+        <v>11.28441040866084</v>
       </c>
       <c r="O9">
-        <v>22.39581291220269</v>
+        <v>17.03873591253141</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.31499493306893</v>
+        <v>27.13246383572389</v>
       </c>
       <c r="C10">
-        <v>10.8249836183718</v>
+        <v>13.24233530491976</v>
       </c>
       <c r="D10">
-        <v>4.897633674535985</v>
+        <v>4.222964552967455</v>
       </c>
       <c r="E10">
-        <v>11.60096446137804</v>
+        <v>7.071056619743429</v>
       </c>
       <c r="F10">
-        <v>25.50523847229383</v>
+        <v>23.71489586220158</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.836037006778545</v>
+        <v>8.173808677011653</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.12399764355793</v>
+        <v>11.00153744685359</v>
       </c>
       <c r="O10">
-        <v>22.40360266226554</v>
+        <v>17.80863491089323</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.69845852675737</v>
+        <v>28.11066531630856</v>
       </c>
       <c r="C11">
-        <v>10.95300663760578</v>
+        <v>13.55985927888278</v>
       </c>
       <c r="D11">
-        <v>4.916653289882337</v>
+        <v>4.282820340472737</v>
       </c>
       <c r="E11">
-        <v>11.57946346187444</v>
+        <v>7.083099661054554</v>
       </c>
       <c r="F11">
-        <v>25.58354111756772</v>
+        <v>24.35671797296763</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.865535496712408</v>
+        <v>8.376743455354779</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.08700162297917</v>
+        <v>10.87654104261876</v>
       </c>
       <c r="O11">
-        <v>22.41374512255913</v>
+        <v>18.17208920833376</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.84190612434574</v>
+        <v>28.47351587396846</v>
       </c>
       <c r="C12">
-        <v>11.00097162362306</v>
+        <v>13.67828313597233</v>
       </c>
       <c r="D12">
-        <v>4.923811672917423</v>
+        <v>4.305250647080943</v>
       </c>
       <c r="E12">
-        <v>11.57162949955323</v>
+        <v>7.088703230387698</v>
       </c>
       <c r="F12">
-        <v>25.61433008646884</v>
+        <v>24.5999926840522</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.876937203541077</v>
+        <v>8.453092944264631</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.07326848758353</v>
+        <v>10.82974701674793</v>
       </c>
       <c r="O12">
-        <v>22.41853435160069</v>
+        <v>18.31158757789335</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.81109239058175</v>
+        <v>28.39570459746574</v>
       </c>
       <c r="C13">
-        <v>10.99066482644747</v>
+        <v>13.65285976967449</v>
       </c>
       <c r="D13">
-        <v>4.922271974288065</v>
+        <v>4.300430546779782</v>
       </c>
       <c r="E13">
-        <v>11.57330297817066</v>
+        <v>7.08744915736284</v>
       </c>
       <c r="F13">
-        <v>25.60764885205502</v>
+        <v>24.5475905804839</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.874471460955164</v>
+        <v>8.436672456424239</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.07621388159733</v>
+        <v>10.83980077202991</v>
       </c>
       <c r="O13">
-        <v>22.41746073705293</v>
+        <v>18.28146160709289</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.71029604893467</v>
+        <v>28.14066840460172</v>
       </c>
       <c r="C14">
-        <v>10.95696321552788</v>
+        <v>13.56963867972864</v>
       </c>
       <c r="D14">
-        <v>4.91724310682964</v>
+        <v>4.284670486152992</v>
       </c>
       <c r="E14">
-        <v>11.57881278179713</v>
+        <v>7.083539458325855</v>
       </c>
       <c r="F14">
-        <v>25.58605145906721</v>
+        <v>24.37672833382026</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.866468924610924</v>
+        <v>8.383034967906431</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.0858662537808</v>
+        <v>10.87268039373461</v>
       </c>
       <c r="O14">
-        <v>22.41412013161664</v>
+        <v>18.18352860371692</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.64832233372126</v>
+        <v>27.98346834538332</v>
       </c>
       <c r="C15">
-        <v>10.93625217875786</v>
+        <v>13.51842580591278</v>
       </c>
       <c r="D15">
-        <v>4.914156996832098</v>
+        <v>4.274985947723434</v>
       </c>
       <c r="E15">
-        <v>11.58222781927844</v>
+        <v>7.08128208534327</v>
       </c>
       <c r="F15">
-        <v>25.57296999121986</v>
+        <v>24.27209702005429</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.861597063718547</v>
+        <v>8.350114497412351</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.09181458873169</v>
+        <v>10.892890693997</v>
       </c>
       <c r="O15">
-        <v>22.41219740897682</v>
+        <v>18.12378388962852</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.28969490455124</v>
+        <v>27.06747046042082</v>
       </c>
       <c r="C16">
-        <v>10.81654652166827</v>
+        <v>13.22133242355242</v>
       </c>
       <c r="D16">
-        <v>4.89638466439376</v>
+        <v>4.219020476383271</v>
       </c>
       <c r="E16">
-        <v>11.60241267832618</v>
+        <v>7.070412647232074</v>
       </c>
       <c r="F16">
-        <v>25.50028141175169</v>
+        <v>23.67298985145411</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.834141927751967</v>
+        <v>8.160479018380322</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.12645415109045</v>
+        <v>11.00978114570738</v>
       </c>
       <c r="O16">
-        <v>22.40307260082283</v>
+        <v>17.78514524998406</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.06668512887184</v>
+        <v>26.49193222894975</v>
       </c>
       <c r="C17">
-        <v>10.74222442694665</v>
+        <v>13.03588444435909</v>
       </c>
       <c r="D17">
-        <v>4.885405909066021</v>
+        <v>4.184280112084548</v>
       </c>
       <c r="E17">
-        <v>11.61534354890012</v>
+        <v>7.065545596649025</v>
       </c>
       <c r="F17">
-        <v>25.45773525419241</v>
+        <v>23.30599576749284</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.817717921181384</v>
+        <v>8.043302607075328</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.14819768412922</v>
+        <v>11.0824391711739</v>
       </c>
       <c r="O17">
-        <v>22.39916495663617</v>
+        <v>17.58076136064941</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.93735452347726</v>
+        <v>26.15586499460945</v>
       </c>
       <c r="C18">
-        <v>10.69915975231879</v>
+        <v>12.92806145362051</v>
       </c>
       <c r="D18">
-        <v>4.879063963711205</v>
+        <v>4.164152612732972</v>
       </c>
       <c r="E18">
-        <v>11.62298232970399</v>
+        <v>7.063391025067133</v>
       </c>
       <c r="F18">
-        <v>25.43402138970402</v>
+        <v>23.09515163169168</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.808427213557799</v>
+        <v>7.975611587623706</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.1608855380464</v>
+        <v>11.12457615425101</v>
       </c>
       <c r="O18">
-        <v>22.3975385822614</v>
+        <v>17.46445168509868</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.89338732059317</v>
+        <v>26.04121085247678</v>
       </c>
       <c r="C19">
-        <v>10.68452531611376</v>
+        <v>12.89135699892555</v>
       </c>
       <c r="D19">
-        <v>4.87691207303765</v>
+        <v>4.157313138902896</v>
       </c>
       <c r="E19">
-        <v>11.62560324694326</v>
+        <v>7.062770664085171</v>
       </c>
       <c r="F19">
-        <v>25.42612290931462</v>
+        <v>23.0238092942178</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.805308512121453</v>
+        <v>7.952643553021968</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.16521263435213</v>
+        <v>11.13890219217606</v>
       </c>
       <c r="O19">
-        <v>22.39709460874881</v>
+        <v>17.42528648918156</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.09053572516753</v>
+        <v>26.55371938642008</v>
       </c>
       <c r="C20">
-        <v>10.75016911616619</v>
+        <v>13.05574591434728</v>
       </c>
       <c r="D20">
-        <v>4.88657745242769</v>
+        <v>4.187993459869453</v>
       </c>
       <c r="E20">
-        <v>11.61394620003782</v>
+        <v>7.065996582281878</v>
       </c>
       <c r="F20">
-        <v>25.46218608462895</v>
+        <v>23.34503899057917</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.819450189906915</v>
+        <v>8.055807043791475</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.1458642643939</v>
+        <v>11.07466872898893</v>
       </c>
       <c r="O20">
-        <v>22.39951664023458</v>
+        <v>17.60238963834194</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.73995115648642</v>
+        <v>28.21578338328157</v>
       </c>
       <c r="C21">
-        <v>10.96687637917998</v>
+        <v>13.594132300204</v>
       </c>
       <c r="D21">
-        <v>4.91872141610588</v>
+        <v>4.289306088071743</v>
       </c>
       <c r="E21">
-        <v>11.57718605639851</v>
+        <v>7.084659095883519</v>
       </c>
       <c r="F21">
-        <v>25.59236442088519</v>
+        <v>24.42690932897339</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.868813239252304</v>
+        <v>8.398803411343685</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.08302362170183</v>
+        <v>10.86300812103671</v>
       </c>
       <c r="O21">
-        <v>22.41507561426786</v>
+        <v>18.212243505697</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.15406241053289</v>
+        <v>29.2579488097967</v>
       </c>
       <c r="C22">
-        <v>11.10549584522887</v>
+        <v>13.93540320450159</v>
       </c>
       <c r="D22">
-        <v>4.939472316881353</v>
+        <v>4.354140584173721</v>
       </c>
       <c r="E22">
-        <v>11.55495663310821</v>
+        <v>7.102961259802486</v>
       </c>
       <c r="F22">
-        <v>25.68406362456014</v>
+        <v>25.13528126112136</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.902419684276742</v>
+        <v>8.620057299839079</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.04356465002662</v>
+        <v>10.72782640454354</v>
       </c>
       <c r="O22">
-        <v>22.43077203741152</v>
+        <v>18.6216841573341</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.9340269707277</v>
+        <v>28.70572354801539</v>
       </c>
       <c r="C23">
-        <v>11.03179653963222</v>
+        <v>13.75424172873338</v>
       </c>
       <c r="D23">
-        <v>4.928421380498638</v>
+        <v>4.319667104492418</v>
       </c>
       <c r="E23">
-        <v>11.56665646612094</v>
+        <v>7.092616765030499</v>
       </c>
       <c r="F23">
-        <v>25.63452279002142</v>
+        <v>24.75712454308882</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.884362423331353</v>
+        <v>8.5022489631122</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.06447750582897</v>
+        <v>10.79968315590886</v>
       </c>
       <c r="O23">
-        <v>22.42188914826821</v>
+        <v>18.40217365178705</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.07975634695645</v>
+        <v>26.52580156323833</v>
       </c>
       <c r="C24">
-        <v>10.74657836631696</v>
+        <v>13.04677029828328</v>
       </c>
       <c r="D24">
-        <v>4.8860478912973</v>
+        <v>4.186315136577451</v>
       </c>
       <c r="E24">
-        <v>11.6145773040244</v>
+        <v>7.06579069114502</v>
       </c>
       <c r="F24">
-        <v>25.46017153754996</v>
+        <v>23.32738708556737</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.818666558297682</v>
+        <v>8.050154795935761</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.14691862023171</v>
+        <v>11.07818060995908</v>
       </c>
       <c r="O24">
-        <v>22.39935571219244</v>
+        <v>17.59260777420252</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.11836764929001</v>
+        <v>23.9815893171785</v>
       </c>
       <c r="C25">
-        <v>10.42695016197703</v>
+        <v>12.23963385083408</v>
       </c>
       <c r="D25">
-        <v>4.839307638974097</v>
+        <v>4.036958910751903</v>
       </c>
       <c r="E25">
-        <v>11.67396139963754</v>
+        <v>7.061296484896099</v>
       </c>
       <c r="F25">
-        <v>25.30112088613869</v>
+        <v>21.79519522151936</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.753787459348466</v>
+        <v>7.551512982293032</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.24278948507242</v>
+        <v>11.39179914025699</v>
       </c>
       <c r="O25">
-        <v>22.3987922831303</v>
+        <v>16.76719282346992</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.93844168700818</v>
+        <v>11.85866640750008</v>
       </c>
       <c r="C2">
-        <v>11.60954327571721</v>
+        <v>7.42874614175504</v>
       </c>
       <c r="D2">
-        <v>3.922725042636094</v>
+        <v>6.804656990947358</v>
       </c>
       <c r="E2">
-        <v>7.077065275608778</v>
+        <v>9.725367982495985</v>
       </c>
       <c r="F2">
-        <v>20.68170796462399</v>
+        <v>23.52703397074797</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>2.444248953200996</v>
+      </c>
+      <c r="I2">
+        <v>2.988718242139305</v>
+      </c>
+      <c r="J2">
         <v>4.251792669784106</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.38260254538425</v>
       </c>
       <c r="L2">
-        <v>7.176991237037349</v>
+        <v>6.375550057074829</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.82409802376781</v>
       </c>
       <c r="N2">
-        <v>11.63390162751164</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.201837260683</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.5098739356542</v>
+      </c>
+      <c r="P2">
+        <v>13.19878930692561</v>
+      </c>
+      <c r="Q2">
+        <v>16.9305473294692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.4458941432416</v>
+        <v>11.09194352038353</v>
       </c>
       <c r="C3">
-        <v>11.16161623748349</v>
+        <v>6.983363904497857</v>
       </c>
       <c r="D3">
-        <v>3.842924756305969</v>
+        <v>6.508907776886419</v>
       </c>
       <c r="E3">
-        <v>7.098690699639837</v>
+        <v>9.387899841281538</v>
       </c>
       <c r="F3">
-        <v>19.94012234273513</v>
+        <v>23.18694162223764</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.639976773733832</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.124214155296135</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.42387794728634</v>
       </c>
       <c r="L3">
-        <v>6.919926843520549</v>
+        <v>6.275597910103752</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.18847234187527</v>
       </c>
       <c r="N3">
-        <v>11.80492189256995</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15.84571670366543</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.00595354257335</v>
+      </c>
+      <c r="P3">
+        <v>13.33363272681011</v>
+      </c>
+      <c r="Q3">
+        <v>16.86151972249406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.47563157914546</v>
+        <v>10.59058953529522</v>
       </c>
       <c r="C4">
-        <v>10.87688016812914</v>
+        <v>6.698520743222462</v>
       </c>
       <c r="D4">
-        <v>3.792854432874189</v>
+        <v>6.321614283236213</v>
       </c>
       <c r="E4">
-        <v>7.117050836911922</v>
+        <v>9.174299221618874</v>
       </c>
       <c r="F4">
-        <v>19.49271788282086</v>
+        <v>22.98219812057594</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.764786696855472</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.211373449805243</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.45256795260591</v>
       </c>
       <c r="L4">
-        <v>6.761028987845139</v>
+        <v>6.21261364217062</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.776540037471408</v>
       </c>
       <c r="N4">
-        <v>11.91335574900107</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>15.64052248393211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.68545002515859</v>
+      </c>
+      <c r="P4">
+        <v>13.41797706349714</v>
+      </c>
+      <c r="Q4">
+        <v>16.82410367361351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.0666175949205</v>
+        <v>10.37342478869616</v>
       </c>
       <c r="C5">
-        <v>10.75851423087693</v>
+        <v>6.588212250394335</v>
       </c>
       <c r="D5">
-        <v>3.772197305744763</v>
+        <v>6.245554182193174</v>
       </c>
       <c r="E5">
-        <v>7.125764877361633</v>
+        <v>9.08615208421479</v>
       </c>
       <c r="F5">
-        <v>19.31263497186178</v>
+        <v>22.89386323026561</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.817037924316937</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.250660826076579</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.46059505489665</v>
       </c>
       <c r="L5">
-        <v>6.696101835339184</v>
+        <v>6.186298279267072</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.603040732147701</v>
       </c>
       <c r="N5">
-        <v>11.95840589185116</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>15.5603016458922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.55244534404068</v>
+      </c>
+      <c r="P5">
+        <v>13.45228094627615</v>
+      </c>
+      <c r="Q5">
+        <v>16.80570558265106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.99787574355315</v>
+        <v>10.33060033917612</v>
       </c>
       <c r="C6">
-        <v>10.73872213222279</v>
+        <v>6.580254865150723</v>
       </c>
       <c r="D6">
-        <v>3.768752424748466</v>
+        <v>6.234815969522348</v>
       </c>
       <c r="E6">
-        <v>7.127284932274121</v>
+        <v>9.071945854283168</v>
       </c>
       <c r="F6">
-        <v>19.28287479369492</v>
+        <v>22.87194240032638</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.826044333617135</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.260799119223062</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.45649296222955</v>
       </c>
       <c r="L6">
-        <v>6.68531298591055</v>
+        <v>6.181597203837944</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.573622506189118</v>
       </c>
       <c r="N6">
-        <v>11.96593856617619</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>15.54718632177527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.53050589161577</v>
+      </c>
+      <c r="P6">
+        <v>13.45743600803409</v>
+      </c>
+      <c r="Q6">
+        <v>16.79736813695007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.47017075203214</v>
+        <v>10.57089381466806</v>
       </c>
       <c r="C7">
-        <v>10.87529314019073</v>
+        <v>6.725172750284177</v>
       </c>
       <c r="D7">
-        <v>3.792576845642688</v>
+        <v>6.325891297867487</v>
       </c>
       <c r="E7">
-        <v>7.117163428518793</v>
+        <v>9.174527835374375</v>
       </c>
       <c r="F7">
-        <v>19.49027983166656</v>
+        <v>22.96112737522378</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.766180733184341</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.22129743521984</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.43771137115703</v>
       </c>
       <c r="L7">
-        <v>6.760153939525061</v>
+        <v>6.211431383067255</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.77346222936908</v>
       </c>
       <c r="N7">
-        <v>11.91395981709951</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>15.6394268354582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.68447281346687</v>
+      </c>
+      <c r="P7">
+        <v>13.4169435008626</v>
+      </c>
+      <c r="Q7">
+        <v>16.80926510048159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.43493087197396</v>
+        <v>11.58009715783624</v>
       </c>
       <c r="C8">
-        <v>11.45717254917386</v>
+        <v>7.31213217614579</v>
       </c>
       <c r="D8">
-        <v>3.895442242868422</v>
+        <v>6.710558647472582</v>
       </c>
       <c r="E8">
-        <v>7.083439155889518</v>
+        <v>9.612202678223179</v>
       </c>
       <c r="F8">
-        <v>20.42450557348944</v>
+        <v>23.38322871360796</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>2.511648963934288</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.046613308465725</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.37642836007586</v>
       </c>
       <c r="L8">
-        <v>7.088627579544345</v>
+        <v>6.340379495668516</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.60851486893923</v>
       </c>
       <c r="N8">
-        <v>11.69215838118828</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>16.07626269803866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.33950542262213</v>
+      </c>
+      <c r="P8">
+        <v>13.24320749287625</v>
+      </c>
+      <c r="Q8">
+        <v>16.88661698617765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.86473385698721</v>
+        <v>13.34421766700078</v>
       </c>
       <c r="C9">
-        <v>12.51724014220584</v>
+        <v>8.326997986871884</v>
       </c>
       <c r="D9">
-        <v>4.08796639792195</v>
+        <v>7.407593058074721</v>
       </c>
       <c r="E9">
-        <v>7.05971758931595</v>
+        <v>10.414229475002</v>
       </c>
       <c r="F9">
-        <v>22.30950047343502</v>
+        <v>24.27519733039354</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>2.047498429668614</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.71978929083344</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.31029191395044</v>
       </c>
       <c r="L9">
-        <v>7.720784456641345</v>
+        <v>6.581481562739406</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.07415117152088</v>
       </c>
       <c r="N9">
-        <v>11.28441040866084</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17.03873591253141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.52924424225756</v>
+      </c>
+      <c r="P9">
+        <v>12.91666850735396</v>
+      </c>
+      <c r="Q9">
+        <v>17.1043347624601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.13246383572389</v>
+        <v>14.47718907844324</v>
       </c>
       <c r="C10">
-        <v>13.24233530491976</v>
+        <v>8.999374498891489</v>
       </c>
       <c r="D10">
-        <v>4.222964552967455</v>
+        <v>7.811120367987392</v>
       </c>
       <c r="E10">
-        <v>7.071056619743429</v>
+        <v>10.7928670906743</v>
       </c>
       <c r="F10">
-        <v>23.71489586220158</v>
+        <v>24.79770881153833</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>1.761445664306121</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.508358091233745</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.22757990347832</v>
       </c>
       <c r="L10">
-        <v>8.173808677011653</v>
+        <v>6.681651836131423</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.02755941322089</v>
       </c>
       <c r="N10">
-        <v>11.00153744685359</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.80863491089323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.23181969892484</v>
+      </c>
+      <c r="P10">
+        <v>12.68055867207051</v>
+      </c>
+      <c r="Q10">
+        <v>17.21684062440411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.11066531630856</v>
+        <v>14.85120160003117</v>
       </c>
       <c r="C11">
-        <v>13.55985927888278</v>
+        <v>9.08332319717754</v>
       </c>
       <c r="D11">
-        <v>4.282820340472737</v>
+        <v>7.32934309664377</v>
       </c>
       <c r="E11">
-        <v>7.083099661054554</v>
+        <v>9.512255062219735</v>
       </c>
       <c r="F11">
-        <v>24.35671797296763</v>
+        <v>23.81506114292421</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>2.779746556050373</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.535259545859178</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.78444362276124</v>
       </c>
       <c r="L11">
-        <v>8.376743455354779</v>
+        <v>6.205641530502668</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.29662464181028</v>
       </c>
       <c r="N11">
-        <v>10.87654104261876</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>18.17208920833376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>12.60328988623804</v>
+      </c>
+      <c r="P11">
+        <v>12.56406867994492</v>
+      </c>
+      <c r="Q11">
+        <v>16.67726094067761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.47351587396846</v>
+        <v>14.95724005676224</v>
       </c>
       <c r="C12">
-        <v>13.67828313597233</v>
+        <v>8.982649831656776</v>
       </c>
       <c r="D12">
-        <v>4.305250647080943</v>
+        <v>6.829044876926938</v>
       </c>
       <c r="E12">
-        <v>7.088703230387698</v>
+        <v>8.442886556267389</v>
       </c>
       <c r="F12">
-        <v>24.5999926840522</v>
+        <v>22.89197922483049</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.16866958607427</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.545833772034773</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.45006377277545</v>
       </c>
       <c r="L12">
-        <v>8.453092944264631</v>
+        <v>5.891379367306635</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.3305192092798</v>
       </c>
       <c r="N12">
-        <v>10.82974701674793</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.31158757789335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.91774312117369</v>
+      </c>
+      <c r="P12">
+        <v>12.52856297586107</v>
+      </c>
+      <c r="Q12">
+        <v>16.21266702539396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.39570459746574</v>
+        <v>14.84787809687264</v>
       </c>
       <c r="C13">
-        <v>13.65285976967449</v>
+        <v>8.764137087695532</v>
       </c>
       <c r="D13">
-        <v>4.300430546779782</v>
+        <v>6.280285657532159</v>
       </c>
       <c r="E13">
-        <v>7.08744915736284</v>
+        <v>7.500727286076144</v>
       </c>
       <c r="F13">
-        <v>24.5475905804839</v>
+        <v>21.92266674514552</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.596621600373607</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.516984417837885</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.15682463424105</v>
       </c>
       <c r="L13">
-        <v>8.436672456424239</v>
+        <v>5.695236480367809</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.18599904700432</v>
       </c>
       <c r="N13">
-        <v>10.83980077202991</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.28146160709289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.13219149533277</v>
+      </c>
+      <c r="P13">
+        <v>12.54899738459217</v>
+      </c>
+      <c r="Q13">
+        <v>15.75422779482993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.14066840460172</v>
+        <v>14.66863936786855</v>
       </c>
       <c r="C14">
-        <v>13.56963867972864</v>
+        <v>8.56160348344755</v>
       </c>
       <c r="D14">
-        <v>4.284670486152992</v>
+        <v>5.871959542466868</v>
       </c>
       <c r="E14">
-        <v>7.083539458325855</v>
+        <v>6.949512757948238</v>
       </c>
       <c r="F14">
-        <v>24.37672833382026</v>
+        <v>21.21898442289849</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.607563731087039</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.523469095540407</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.96873417259847</v>
       </c>
       <c r="L14">
-        <v>8.383034967906431</v>
+        <v>5.634299055159993</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.00217459297625</v>
       </c>
       <c r="N14">
-        <v>10.87268039373461</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>18.18352860371692</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.53026917160405</v>
+      </c>
+      <c r="P14">
+        <v>12.58899248976945</v>
+      </c>
+      <c r="Q14">
+        <v>15.43400465727336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.98346834538332</v>
+        <v>14.57295135451862</v>
       </c>
       <c r="C15">
-        <v>13.51842580591278</v>
+        <v>8.494650302211928</v>
       </c>
       <c r="D15">
-        <v>4.274985947723434</v>
+        <v>5.763238775246832</v>
       </c>
       <c r="E15">
-        <v>7.08128208534327</v>
+        <v>6.832071252312883</v>
       </c>
       <c r="F15">
-        <v>24.27209702005429</v>
+        <v>21.03340001837988</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.843042537819652</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.546352935972502</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.92747637088818</v>
       </c>
       <c r="L15">
-        <v>8.350114497412351</v>
+        <v>5.628923078505892</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.91821234721506</v>
       </c>
       <c r="N15">
-        <v>10.892890693997</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>18.12378388962852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.3621092880606</v>
+      </c>
+      <c r="P15">
+        <v>12.60906066665098</v>
+      </c>
+      <c r="Q15">
+        <v>15.35391689545619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.06747046042082</v>
+        <v>14.11735270247303</v>
       </c>
       <c r="C16">
-        <v>13.22133242355242</v>
+        <v>8.259964295118252</v>
       </c>
       <c r="D16">
-        <v>4.219020476383271</v>
+        <v>5.678233103769937</v>
       </c>
       <c r="E16">
-        <v>7.070412647232074</v>
+        <v>6.828545700888486</v>
       </c>
       <c r="F16">
-        <v>23.67298985145411</v>
+        <v>20.97851810357803</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.64580190261527</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.636369642362705</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.01482146681711</v>
       </c>
       <c r="L16">
-        <v>8.160479018380322</v>
+        <v>5.61882129581582</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.54690553351074</v>
       </c>
       <c r="N16">
-        <v>11.00978114570738</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.78514524998406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.1848397629117</v>
+      </c>
+      <c r="P16">
+        <v>12.69798486642272</v>
+      </c>
+      <c r="Q16">
+        <v>15.38681544705537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.49193222894975</v>
+        <v>13.85926795097609</v>
       </c>
       <c r="C17">
-        <v>13.03588444435909</v>
+        <v>8.190691619115857</v>
       </c>
       <c r="D17">
-        <v>4.184280112084548</v>
+        <v>5.836501011324325</v>
       </c>
       <c r="E17">
-        <v>7.065545596649025</v>
+        <v>7.097452642811521</v>
       </c>
       <c r="F17">
-        <v>23.30599576749284</v>
+        <v>21.3135339401417</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.927352230636672</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.685393123367437</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.18044917923457</v>
       </c>
       <c r="L17">
-        <v>8.043302607075328</v>
+        <v>5.631192918687152</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.35844282251798</v>
       </c>
       <c r="N17">
-        <v>11.0824391711739</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.58076136064941</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.37885529951736</v>
+      </c>
+      <c r="P17">
+        <v>12.74580012810819</v>
+      </c>
+      <c r="Q17">
+        <v>15.5825002630967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.15586499460945</v>
+        <v>13.7608709268643</v>
       </c>
       <c r="C18">
-        <v>12.92806145362051</v>
+        <v>8.240873275749959</v>
       </c>
       <c r="D18">
-        <v>4.164152612732972</v>
+        <v>6.222862716158391</v>
       </c>
       <c r="E18">
-        <v>7.063391025067133</v>
+        <v>7.749074962397831</v>
       </c>
       <c r="F18">
-        <v>23.09515163169168</v>
+        <v>22.03655282172896</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.707794287925173</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.69231236811332</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.4445889838948</v>
       </c>
       <c r="L18">
-        <v>7.975611587623706</v>
+        <v>5.735141651911411</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.31232156210129</v>
       </c>
       <c r="N18">
-        <v>11.12457615425101</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.46445168509868</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.91663942815577</v>
+      </c>
+      <c r="P18">
+        <v>12.76873285967629</v>
+      </c>
+      <c r="Q18">
+        <v>15.95012041028186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.04121085247678</v>
+        <v>13.77543319293114</v>
       </c>
       <c r="C19">
-        <v>12.89135699892555</v>
+        <v>8.425840102695368</v>
       </c>
       <c r="D19">
-        <v>4.157313138902896</v>
+        <v>6.772348683803524</v>
       </c>
       <c r="E19">
-        <v>7.062770664085171</v>
+        <v>8.787375836729511</v>
       </c>
       <c r="F19">
-        <v>23.0238092942178</v>
+        <v>22.98975448052732</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.282213410108175</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.684079143008097</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.7494031884229</v>
       </c>
       <c r="L19">
-        <v>7.952643553021968</v>
+        <v>6.000880183122783</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.38439634971764</v>
       </c>
       <c r="N19">
-        <v>11.13890219217606</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.42528648918156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.68783735446203</v>
+      </c>
+      <c r="P19">
+        <v>12.77755151075638</v>
+      </c>
+      <c r="Q19">
+        <v>16.40693834315803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.55371938642008</v>
+        <v>14.14834860172492</v>
       </c>
       <c r="C20">
-        <v>13.05574591434728</v>
+        <v>8.893902918066326</v>
       </c>
       <c r="D20">
-        <v>4.187993459869453</v>
+        <v>7.717183899834304</v>
       </c>
       <c r="E20">
-        <v>7.065996582281878</v>
+        <v>10.6910891674278</v>
       </c>
       <c r="F20">
-        <v>23.34503899057917</v>
+        <v>24.59647266782849</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>1.836325282053178</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.595761634024025</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.20048575358914</v>
       </c>
       <c r="L20">
-        <v>8.055807043791475</v>
+        <v>6.65047799767471</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.78164663972775</v>
       </c>
       <c r="N20">
-        <v>11.07466872898893</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.60238963834194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>13.04814530469902</v>
+      </c>
+      <c r="P20">
+        <v>12.73900728130524</v>
+      </c>
+      <c r="Q20">
+        <v>17.13918140534858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.21578338328157</v>
+        <v>14.99969133824003</v>
       </c>
       <c r="C21">
-        <v>13.594132300204</v>
+        <v>9.418260125385418</v>
       </c>
       <c r="D21">
-        <v>4.289306088071743</v>
+        <v>8.132771347019045</v>
       </c>
       <c r="E21">
-        <v>7.084659095883519</v>
+        <v>11.24044703895569</v>
       </c>
       <c r="F21">
-        <v>24.42690932897339</v>
+        <v>25.22874723578735</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>1.572952250690781</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.587805341358868</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.22245943364596</v>
       </c>
       <c r="L21">
-        <v>8.398803411343685</v>
+        <v>6.830917922932302</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.50570969833501</v>
       </c>
       <c r="N21">
-        <v>10.86300812103671</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>18.212243505697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.73492761483418</v>
+      </c>
+      <c r="P21">
+        <v>12.56435838808811</v>
+      </c>
+      <c r="Q21">
+        <v>17.34641154636045</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.2579488097967</v>
+        <v>15.53975184285374</v>
       </c>
       <c r="C22">
-        <v>13.93540320450159</v>
+        <v>9.710097753817992</v>
       </c>
       <c r="D22">
-        <v>4.354140584173721</v>
+        <v>8.352309576833902</v>
       </c>
       <c r="E22">
-        <v>7.102961259802486</v>
+        <v>11.50041339916642</v>
       </c>
       <c r="F22">
-        <v>25.13528126112136</v>
+        <v>25.59547634194608</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>1.698280607321836</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.686819383644611</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.23656234649789</v>
       </c>
       <c r="L22">
-        <v>8.620057299839079</v>
+        <v>6.913095803155107</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.95169470690986</v>
       </c>
       <c r="N22">
-        <v>10.72782640454354</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.6216841573341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>14.11421153880791</v>
+      </c>
+      <c r="P22">
+        <v>12.45109361789728</v>
+      </c>
+      <c r="Q22">
+        <v>17.470676729278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.70572354801539</v>
+        <v>15.26827203226087</v>
       </c>
       <c r="C23">
-        <v>13.75424172873338</v>
+        <v>9.530765039185466</v>
       </c>
       <c r="D23">
-        <v>4.319667104492418</v>
+        <v>8.23084160083946</v>
       </c>
       <c r="E23">
-        <v>7.092616765030499</v>
+        <v>11.36089165695092</v>
       </c>
       <c r="F23">
-        <v>24.75712454308882</v>
+        <v>25.42056137735008</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>1.619271833037882</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.62884576084788</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.24590137745722</v>
       </c>
       <c r="L23">
-        <v>8.5022489631122</v>
+        <v>6.870193095152352</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.71611595011767</v>
       </c>
       <c r="N23">
-        <v>10.79968315590886</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>18.40217365178705</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>13.91224439002685</v>
+      </c>
+      <c r="P23">
+        <v>12.51247779671503</v>
+      </c>
+      <c r="Q23">
+        <v>17.42009370459624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.52580156323833</v>
+        <v>14.16609951439002</v>
       </c>
       <c r="C24">
-        <v>13.04677029828328</v>
+        <v>8.868226848772681</v>
       </c>
       <c r="D24">
-        <v>4.186315136577451</v>
+        <v>7.764632474110747</v>
       </c>
       <c r="E24">
-        <v>7.06579069114502</v>
+        <v>10.81986423556256</v>
       </c>
       <c r="F24">
-        <v>23.32738708556737</v>
+        <v>24.72926199922627</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>1.81515997077515</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.575094961469014</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.2621792989249</v>
       </c>
       <c r="L24">
-        <v>8.050154795935761</v>
+        <v>6.703177383053188</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.78388783915732</v>
       </c>
       <c r="N24">
-        <v>11.07818060995908</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.59260777420252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.12293449672074</v>
+      </c>
+      <c r="P24">
+        <v>12.74547733992826</v>
+      </c>
+      <c r="Q24">
+        <v>17.2136943328045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.9815893171785</v>
+        <v>12.86735671479173</v>
       </c>
       <c r="C25">
-        <v>12.23963385083408</v>
+        <v>8.105194794107135</v>
       </c>
       <c r="D25">
-        <v>4.036958910751903</v>
+        <v>7.233065045814688</v>
       </c>
       <c r="E25">
-        <v>7.061296484896099</v>
+        <v>10.20581019272762</v>
       </c>
       <c r="F25">
-        <v>21.79519522151936</v>
+        <v>23.99707628520171</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>2.170384383009328</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.82239578556683</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.29841382141101</v>
       </c>
       <c r="L25">
-        <v>7.551512982293032</v>
+        <v>6.516366208796725</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.69515844554121</v>
       </c>
       <c r="N25">
-        <v>11.39179914025699</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>16.76719282346992</v>
+        <v>12.21932436384796</v>
+      </c>
+      <c r="P25">
+        <v>13.00176328353916</v>
+      </c>
+      <c r="Q25">
+        <v>17.01536589913017</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.85866640750008</v>
+        <v>11.67749295777863</v>
       </c>
       <c r="C2">
-        <v>7.42874614175504</v>
+        <v>7.725838146507995</v>
       </c>
       <c r="D2">
-        <v>6.804656990947358</v>
+        <v>6.950670005297889</v>
       </c>
       <c r="E2">
-        <v>9.725367982495985</v>
+        <v>9.829769666788067</v>
       </c>
       <c r="F2">
-        <v>23.52703397074797</v>
+        <v>22.98649301250311</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.444248953200996</v>
+        <v>2.380108824585868</v>
       </c>
       <c r="I2">
-        <v>2.988718242139305</v>
+        <v>2.855952343817361</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>15.38260254538425</v>
+        <v>14.79132490295645</v>
       </c>
       <c r="L2">
-        <v>6.375550057074829</v>
+        <v>12.34649522513415</v>
       </c>
       <c r="M2">
-        <v>10.82409802376781</v>
+        <v>9.531322498895888</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.394928686792756</v>
       </c>
       <c r="O2">
-        <v>11.5098739356542</v>
+        <v>10.8473531854573</v>
       </c>
       <c r="P2">
-        <v>13.19878930692561</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.9305473294692</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.53522691414112</v>
+      </c>
+      <c r="R2">
+        <v>13.04785758542741</v>
+      </c>
+      <c r="S2">
+        <v>16.4645860126409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.09194352038353</v>
+        <v>10.96280620014237</v>
       </c>
       <c r="C3">
-        <v>6.983363904497857</v>
+        <v>7.188156918234906</v>
       </c>
       <c r="D3">
-        <v>6.508907776886419</v>
+        <v>6.645728970844409</v>
       </c>
       <c r="E3">
-        <v>9.387899841281538</v>
+        <v>9.494823942241357</v>
       </c>
       <c r="F3">
-        <v>23.18694162223764</v>
+        <v>22.69280814910966</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.639976773733832</v>
+        <v>2.569325667187801</v>
       </c>
       <c r="I3">
-        <v>3.124214155296135</v>
+        <v>2.977764158269936</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>15.42387794728634</v>
+        <v>14.86072301126398</v>
       </c>
       <c r="L3">
-        <v>6.275597910103752</v>
+        <v>12.48210323482393</v>
       </c>
       <c r="M3">
-        <v>10.18847234187527</v>
+        <v>9.526868990477396</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.299825968334639</v>
       </c>
       <c r="O3">
-        <v>11.00595354257335</v>
+        <v>10.21639183753229</v>
       </c>
       <c r="P3">
-        <v>13.33363272681011</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.86151972249406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.02937040662006</v>
+      </c>
+      <c r="R3">
+        <v>13.17683342067801</v>
+      </c>
+      <c r="S3">
+        <v>16.42813847752636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.59058953529522</v>
+        <v>10.49563986610424</v>
       </c>
       <c r="C4">
-        <v>6.698520743222462</v>
+        <v>6.84294025444707</v>
       </c>
       <c r="D4">
-        <v>6.321614283236213</v>
+        <v>6.452860104318309</v>
       </c>
       <c r="E4">
-        <v>9.174299221618874</v>
+        <v>9.283100438228468</v>
       </c>
       <c r="F4">
-        <v>22.98219812057594</v>
+        <v>22.51603944061543</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.764786696855472</v>
+        <v>2.690017527626095</v>
       </c>
       <c r="I4">
-        <v>3.211373449805243</v>
+        <v>3.056440155869442</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>15.45256795260591</v>
+        <v>14.90570074172946</v>
       </c>
       <c r="L4">
-        <v>6.21261364217062</v>
+        <v>12.56695780462195</v>
       </c>
       <c r="M4">
-        <v>9.776540037471408</v>
+        <v>9.541513787203018</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.23992322864028</v>
       </c>
       <c r="O4">
-        <v>10.68545002515859</v>
+        <v>9.807546082089154</v>
       </c>
       <c r="P4">
-        <v>13.41797706349714</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.82410367361351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.70758307330118</v>
+      </c>
+      <c r="R4">
+        <v>13.25774413930425</v>
+      </c>
+      <c r="S4">
+        <v>16.41000356760721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.37342478869616</v>
+        <v>10.29306792028634</v>
       </c>
       <c r="C5">
-        <v>6.588212250394335</v>
+        <v>6.707545731557667</v>
       </c>
       <c r="D5">
-        <v>6.245554182193174</v>
+        <v>6.374543284285501</v>
       </c>
       <c r="E5">
-        <v>9.08615208421479</v>
+        <v>9.195801942146705</v>
       </c>
       <c r="F5">
-        <v>22.89386323026561</v>
+        <v>22.43899016145452</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.817037924316937</v>
+        <v>2.740555242944566</v>
       </c>
       <c r="I5">
-        <v>3.250660826076579</v>
+        <v>3.092742736262212</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>15.46059505489665</v>
+        <v>14.92024978160919</v>
       </c>
       <c r="L5">
-        <v>6.186298279267072</v>
+        <v>12.59774011099601</v>
       </c>
       <c r="M5">
-        <v>9.603040732147701</v>
+        <v>9.549493693089204</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.214892614503696</v>
       </c>
       <c r="O5">
-        <v>10.55244534404068</v>
+        <v>9.63536708290602</v>
       </c>
       <c r="P5">
-        <v>13.45228094627615</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.80570558265106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.5740329189678</v>
+      </c>
+      <c r="R5">
+        <v>13.29077030111944</v>
+      </c>
+      <c r="S5">
+        <v>16.3993268468781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.33060033917612</v>
+        <v>10.25280534210482</v>
       </c>
       <c r="C6">
-        <v>6.580254865150723</v>
+        <v>6.69592152847042</v>
       </c>
       <c r="D6">
-        <v>6.234815969522348</v>
+        <v>6.363417283095724</v>
       </c>
       <c r="E6">
-        <v>9.071945854283168</v>
+        <v>9.181739121919458</v>
       </c>
       <c r="F6">
-        <v>22.87194240032638</v>
+        <v>22.41898186802946</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.826044333617135</v>
+        <v>2.749269958354429</v>
       </c>
       <c r="I6">
-        <v>3.260799119223062</v>
+        <v>3.103035169368348</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>15.45649296222955</v>
+        <v>14.91737374377516</v>
       </c>
       <c r="L6">
-        <v>6.181597203837944</v>
+        <v>12.59775198299501</v>
       </c>
       <c r="M6">
-        <v>9.573622506189118</v>
+        <v>9.548212238200456</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.210410677263217</v>
       </c>
       <c r="O6">
-        <v>10.53050589161577</v>
+        <v>9.606174443716075</v>
       </c>
       <c r="P6">
-        <v>13.45743600803409</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.79736813695007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.55200101746074</v>
+      </c>
+      <c r="R6">
+        <v>13.29581610890616</v>
+      </c>
+      <c r="S6">
+        <v>16.39232451682034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.57089381466806</v>
+        <v>10.47640579393458</v>
       </c>
       <c r="C7">
-        <v>6.725172750284177</v>
+        <v>6.870699021178682</v>
       </c>
       <c r="D7">
-        <v>6.325891297867487</v>
+        <v>6.457068841633665</v>
       </c>
       <c r="E7">
-        <v>9.174527835374375</v>
+        <v>9.283333820612908</v>
       </c>
       <c r="F7">
-        <v>22.96112737522378</v>
+        <v>22.49526812297123</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.766180733184341</v>
+        <v>2.691373784246469</v>
       </c>
       <c r="I7">
-        <v>3.22129743521984</v>
+        <v>3.068032264873027</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>15.43771137115703</v>
+        <v>14.89140407604165</v>
       </c>
       <c r="L7">
-        <v>6.211431383067255</v>
+        <v>12.55376504251841</v>
       </c>
       <c r="M7">
-        <v>9.77346222936908</v>
+        <v>9.533372162609311</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.238770089232356</v>
       </c>
       <c r="O7">
-        <v>10.68447281346687</v>
+        <v>9.804492958634881</v>
       </c>
       <c r="P7">
-        <v>13.4169435008626</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.80926510048159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.7065969500072</v>
+      </c>
+      <c r="R7">
+        <v>13.25698425119222</v>
+      </c>
+      <c r="S7">
+        <v>16.39546391347164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.58009715783624</v>
+        <v>11.41670526449452</v>
       </c>
       <c r="C8">
-        <v>7.31213217614579</v>
+        <v>7.579756991003314</v>
       </c>
       <c r="D8">
-        <v>6.710558647472582</v>
+        <v>6.853356699731989</v>
       </c>
       <c r="E8">
-        <v>9.612202678223179</v>
+        <v>9.717405271898958</v>
       </c>
       <c r="F8">
-        <v>23.38322871360796</v>
+        <v>22.85902553473017</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.511648963934288</v>
+        <v>2.445266680849171</v>
       </c>
       <c r="I8">
-        <v>3.046613308465725</v>
+        <v>2.911334926634765</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>15.37642836007586</v>
+        <v>14.79583610707857</v>
       </c>
       <c r="L8">
-        <v>6.340379495668516</v>
+        <v>12.37653770739902</v>
       </c>
       <c r="M8">
-        <v>10.60851486893923</v>
+        <v>9.5137012256045</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.361424870907198</v>
       </c>
       <c r="O8">
-        <v>11.33950542262213</v>
+        <v>10.63334480856035</v>
       </c>
       <c r="P8">
-        <v>13.24320749287625</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>16.88661698617765</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.36420990404029</v>
+      </c>
+      <c r="R8">
+        <v>13.09066982485156</v>
+      </c>
+      <c r="S8">
+        <v>16.43235789571363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.34421766700078</v>
+        <v>13.06256974024123</v>
       </c>
       <c r="C9">
-        <v>8.326997986871884</v>
+        <v>8.80313060816405</v>
       </c>
       <c r="D9">
-        <v>7.407593058074721</v>
+        <v>7.573364433962021</v>
       </c>
       <c r="E9">
-        <v>10.414229475002</v>
+        <v>10.51481571738283</v>
       </c>
       <c r="F9">
-        <v>24.27519733039354</v>
+        <v>23.63311249633616</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.047498429668614</v>
+        <v>1.996753662079582</v>
       </c>
       <c r="I9">
-        <v>2.71978929083344</v>
+        <v>2.616431737359731</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>15.31029191395044</v>
+        <v>14.65340523790246</v>
       </c>
       <c r="L9">
-        <v>6.581481562739406</v>
+        <v>12.06281178787935</v>
       </c>
       <c r="M9">
-        <v>12.07415117152088</v>
+        <v>9.630510435258767</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.591010945524046</v>
       </c>
       <c r="O9">
-        <v>12.52924424225756</v>
+        <v>12.0884010713419</v>
       </c>
       <c r="P9">
-        <v>12.91666850735396</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>17.1043347624601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.55817697206026</v>
+      </c>
+      <c r="R9">
+        <v>12.77951815933071</v>
+      </c>
+      <c r="S9">
+        <v>16.5648387717629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.47718907844324</v>
+        <v>14.12254651176532</v>
       </c>
       <c r="C10">
-        <v>8.999374498891489</v>
+        <v>9.604437694083868</v>
       </c>
       <c r="D10">
-        <v>7.811120367987392</v>
+        <v>7.992053568115592</v>
       </c>
       <c r="E10">
-        <v>10.7928670906743</v>
+        <v>10.89105148254644</v>
       </c>
       <c r="F10">
-        <v>24.79770881153833</v>
+        <v>24.07518534192963</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.761445664306121</v>
+        <v>1.721752109489887</v>
       </c>
       <c r="I10">
-        <v>2.508358091233745</v>
+        <v>2.551834049479045</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>15.22757990347832</v>
+        <v>14.51659703729787</v>
       </c>
       <c r="L10">
-        <v>6.681651836131423</v>
+        <v>11.80746860132295</v>
       </c>
       <c r="M10">
-        <v>13.02755941322089</v>
+        <v>9.760783078921035</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.683919180524186</v>
       </c>
       <c r="O10">
-        <v>13.23181969892484</v>
+        <v>13.03502188325588</v>
       </c>
       <c r="P10">
-        <v>12.68055867207051</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>17.21684062440411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.26300367164549</v>
+      </c>
+      <c r="R10">
+        <v>12.55815386916419</v>
+      </c>
+      <c r="S10">
+        <v>16.61747063104215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.85120160003117</v>
+        <v>14.49903389352524</v>
       </c>
       <c r="C11">
-        <v>9.08332319717754</v>
+        <v>9.680317244827089</v>
       </c>
       <c r="D11">
-        <v>7.32934309664377</v>
+        <v>7.50524347190176</v>
       </c>
       <c r="E11">
-        <v>9.512255062219735</v>
+        <v>9.606184019348998</v>
       </c>
       <c r="F11">
-        <v>23.81506114292421</v>
+        <v>23.11401754076079</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.779746556050373</v>
+        <v>2.756257268551455</v>
       </c>
       <c r="I11">
-        <v>2.535259545859178</v>
+        <v>2.619032894828611</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>14.78444362276124</v>
+        <v>14.10680528405334</v>
       </c>
       <c r="L11">
-        <v>6.205641530502668</v>
+        <v>11.45532309862648</v>
       </c>
       <c r="M11">
-        <v>13.29662464181028</v>
+        <v>9.533680842427476</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.210473993030825</v>
       </c>
       <c r="O11">
-        <v>12.60328988623804</v>
+        <v>13.30294944506118</v>
       </c>
       <c r="P11">
-        <v>12.56406867994492</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.67726094067761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.63321006298656</v>
+      </c>
+      <c r="R11">
+        <v>12.46732791589869</v>
+      </c>
+      <c r="S11">
+        <v>16.09801714198508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.95724005676224</v>
+        <v>14.62200401926144</v>
       </c>
       <c r="C12">
-        <v>8.982649831656776</v>
+        <v>9.544886982736593</v>
       </c>
       <c r="D12">
-        <v>6.829044876926938</v>
+        <v>6.997213729957222</v>
       </c>
       <c r="E12">
-        <v>8.442886556267389</v>
+        <v>8.532571145938435</v>
       </c>
       <c r="F12">
-        <v>22.89197922483049</v>
+        <v>22.22671920344898</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.16866958607427</v>
+        <v>4.152779032670911</v>
       </c>
       <c r="I12">
-        <v>2.545833772034773</v>
+        <v>2.628662423095892</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>14.45006377277545</v>
+        <v>13.81176565087552</v>
       </c>
       <c r="L12">
-        <v>5.891379367306635</v>
+        <v>11.23515929098889</v>
       </c>
       <c r="M12">
-        <v>13.3305192092798</v>
+        <v>9.321324369211558</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.899999347376093</v>
       </c>
       <c r="O12">
-        <v>11.91774312117369</v>
+        <v>13.33722479967445</v>
       </c>
       <c r="P12">
-        <v>12.52856297586107</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>16.21266702539396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.94611132747046</v>
+      </c>
+      <c r="R12">
+        <v>12.44857884336434</v>
+      </c>
+      <c r="S12">
+        <v>15.66344365790707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.84787809687264</v>
+        <v>14.54244556426481</v>
       </c>
       <c r="C13">
-        <v>8.764137087695532</v>
+        <v>9.268836984756957</v>
       </c>
       <c r="D13">
-        <v>6.280285657532159</v>
+        <v>6.438124096916995</v>
       </c>
       <c r="E13">
-        <v>7.500727286076144</v>
+        <v>7.585933503355882</v>
       </c>
       <c r="F13">
-        <v>21.92266674514552</v>
+        <v>21.30703451251308</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.596621600373607</v>
+        <v>5.583786245960868</v>
       </c>
       <c r="I13">
-        <v>2.516984417837885</v>
+        <v>2.602496750270835</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>14.15682463424105</v>
+        <v>13.56547555561276</v>
       </c>
       <c r="L13">
-        <v>5.695236480367809</v>
+        <v>11.07867659558642</v>
       </c>
       <c r="M13">
-        <v>13.18599904700432</v>
+        <v>9.092668980787705</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.708583948045068</v>
       </c>
       <c r="O13">
-        <v>11.13219149533277</v>
+        <v>13.19430528368673</v>
       </c>
       <c r="P13">
-        <v>12.54899738459217</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.75422779482993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.15859847408094</v>
+      </c>
+      <c r="R13">
+        <v>12.47987327505038</v>
+      </c>
+      <c r="S13">
+        <v>15.2449291017328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.66863936786855</v>
+        <v>14.39037216927312</v>
       </c>
       <c r="C14">
-        <v>8.56160348344755</v>
+        <v>9.014934659367681</v>
       </c>
       <c r="D14">
-        <v>5.871959542466868</v>
+        <v>6.021375360185044</v>
       </c>
       <c r="E14">
-        <v>6.949512757948238</v>
+        <v>7.031208378215539</v>
       </c>
       <c r="F14">
-        <v>21.21898442289849</v>
+        <v>20.6443945309263</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.607563731087039</v>
+        <v>6.595766156122161</v>
       </c>
       <c r="I14">
-        <v>2.523469095540407</v>
+        <v>2.569885992685651</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>13.96873417259847</v>
+        <v>13.41323525057986</v>
       </c>
       <c r="L14">
-        <v>5.634299055159993</v>
+        <v>10.99299389630304</v>
       </c>
       <c r="M14">
-        <v>13.00217459297625</v>
+        <v>8.926813429688494</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.651118879880646</v>
       </c>
       <c r="O14">
-        <v>10.53026917160405</v>
+        <v>13.01216806813398</v>
       </c>
       <c r="P14">
-        <v>12.58899248976945</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>15.43400465727336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.55505600660629</v>
+      </c>
+      <c r="R14">
+        <v>12.52449426860959</v>
+      </c>
+      <c r="S14">
+        <v>14.95696660700249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.57295135451862</v>
+        <v>14.30421555121491</v>
       </c>
       <c r="C15">
-        <v>8.494650302211928</v>
+        <v>8.930670037059746</v>
       </c>
       <c r="D15">
-        <v>5.763238775246832</v>
+        <v>5.910118271931506</v>
       </c>
       <c r="E15">
-        <v>6.832071252312883</v>
+        <v>6.913152136431719</v>
       </c>
       <c r="F15">
-        <v>21.03340001837988</v>
+        <v>20.47163564559265</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.843042537819652</v>
+        <v>6.831237743199246</v>
       </c>
       <c r="I15">
-        <v>2.546352935972502</v>
+        <v>2.55658252189669</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>13.92747637088818</v>
+        <v>13.38229700987152</v>
       </c>
       <c r="L15">
-        <v>5.628923078505892</v>
+        <v>10.98033468568617</v>
       </c>
       <c r="M15">
-        <v>12.91821234721506</v>
+        <v>8.881824494279785</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.646744384759348</v>
       </c>
       <c r="O15">
-        <v>10.3621092880606</v>
+        <v>12.9288921852261</v>
       </c>
       <c r="P15">
-        <v>12.60906066665098</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>15.35391689545619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.38640330567494</v>
+      </c>
+      <c r="R15">
+        <v>12.54463677024235</v>
+      </c>
+      <c r="S15">
+        <v>14.88674828891529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.11735270247303</v>
+        <v>13.8748750674132</v>
       </c>
       <c r="C16">
-        <v>8.259964295118252</v>
+        <v>8.650092251596893</v>
       </c>
       <c r="D16">
-        <v>5.678233103769937</v>
+        <v>5.820937116682139</v>
       </c>
       <c r="E16">
-        <v>6.828545700888486</v>
+        <v>6.91366064738572</v>
       </c>
       <c r="F16">
-        <v>20.97851810357803</v>
+        <v>20.441315367746</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.64580190261527</v>
+        <v>6.631571770781579</v>
       </c>
       <c r="I16">
-        <v>2.636369642362705</v>
+        <v>2.5522699227865</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>14.01482146681711</v>
+        <v>13.48167137712538</v>
       </c>
       <c r="L16">
-        <v>5.61882129581582</v>
+        <v>11.0877431735036</v>
       </c>
       <c r="M16">
-        <v>12.54690553351074</v>
+        <v>8.876609068216712</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.638646685615249</v>
       </c>
       <c r="O16">
-        <v>10.1848397629117</v>
+        <v>12.56017710981008</v>
       </c>
       <c r="P16">
-        <v>12.69798486642272</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>15.38681544705537</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.20834990271294</v>
+      </c>
+      <c r="R16">
+        <v>12.62334115861893</v>
+      </c>
+      <c r="S16">
+        <v>14.93684852459466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.85926795097609</v>
+        <v>13.62215499628584</v>
       </c>
       <c r="C17">
-        <v>8.190691619115857</v>
+        <v>8.573917134690824</v>
       </c>
       <c r="D17">
-        <v>5.836501011324325</v>
+        <v>5.980442456897409</v>
       </c>
       <c r="E17">
-        <v>7.097452642811521</v>
+        <v>7.187243841626789</v>
       </c>
       <c r="F17">
-        <v>21.3135339401417</v>
+        <v>20.77329834553147</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.927352230636672</v>
+        <v>5.910122745596532</v>
       </c>
       <c r="I17">
-        <v>2.685393123367437</v>
+        <v>2.596971892159339</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>14.18044917923457</v>
+        <v>13.63806748366828</v>
       </c>
       <c r="L17">
-        <v>5.631192918687152</v>
+        <v>11.22134286026323</v>
       </c>
       <c r="M17">
-        <v>12.35844282251798</v>
+        <v>8.957787511262362</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.650906241425674</v>
       </c>
       <c r="O17">
-        <v>10.37885529951736</v>
+        <v>12.37280153134338</v>
       </c>
       <c r="P17">
-        <v>12.74580012810819</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>15.5825002630967</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.40268931157841</v>
+      </c>
+      <c r="R17">
+        <v>12.66139185843982</v>
+      </c>
+      <c r="S17">
+        <v>15.12871533878949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.7608709268643</v>
+        <v>13.51115161027174</v>
       </c>
       <c r="C18">
-        <v>8.240873275749959</v>
+        <v>8.650058367256417</v>
       </c>
       <c r="D18">
-        <v>6.222862716158391</v>
+        <v>6.372683310045522</v>
       </c>
       <c r="E18">
-        <v>7.749074962397831</v>
+        <v>7.843097884881588</v>
       </c>
       <c r="F18">
-        <v>22.03655282172896</v>
+        <v>21.46941551135287</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.707794287925173</v>
+        <v>4.685805725253469</v>
       </c>
       <c r="I18">
-        <v>2.69231236811332</v>
+        <v>2.600664744189226</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>14.4445889838948</v>
+        <v>13.87333025659565</v>
       </c>
       <c r="L18">
-        <v>5.735141651911411</v>
+        <v>11.40512603604127</v>
       </c>
       <c r="M18">
-        <v>12.31232156210129</v>
+        <v>9.123946430334705</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.75253844684056</v>
       </c>
       <c r="O18">
-        <v>10.91663942815577</v>
+        <v>12.32653554848391</v>
       </c>
       <c r="P18">
-        <v>12.76873285967629</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>15.95012041028186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.94179896346133</v>
+      </c>
+      <c r="R18">
+        <v>12.67287089488237</v>
+      </c>
+      <c r="S18">
+        <v>15.4740975022626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.77543319293114</v>
+        <v>13.50008795444424</v>
       </c>
       <c r="C19">
-        <v>8.425840102695368</v>
+        <v>8.886390747503786</v>
       </c>
       <c r="D19">
-        <v>6.772348683803524</v>
+        <v>6.931256523618637</v>
       </c>
       <c r="E19">
-        <v>8.787375836729511</v>
+        <v>8.884132940697521</v>
       </c>
       <c r="F19">
-        <v>22.98975448052732</v>
+        <v>22.37900366361892</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.282213410108175</v>
+        <v>3.252154573661888</v>
       </c>
       <c r="I19">
-        <v>2.684079143008097</v>
+        <v>2.59477246159401</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>14.7494031884229</v>
+        <v>14.13636619126327</v>
       </c>
       <c r="L19">
-        <v>6.000880183122783</v>
+        <v>11.60277288958221</v>
       </c>
       <c r="M19">
-        <v>12.38439634971764</v>
+        <v>9.328807971067086</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.013997096142828</v>
       </c>
       <c r="O19">
-        <v>11.68783735446203</v>
+        <v>12.39747234106521</v>
       </c>
       <c r="P19">
-        <v>12.77755151075638</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>16.40693834315803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.71496559906898</v>
+      </c>
+      <c r="R19">
+        <v>12.66930035544322</v>
+      </c>
+      <c r="S19">
+        <v>15.89588493708472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.14834860172492</v>
+        <v>13.81293541017156</v>
       </c>
       <c r="C20">
-        <v>8.893902918066326</v>
+        <v>9.468267714472322</v>
       </c>
       <c r="D20">
-        <v>7.717183899834304</v>
+        <v>7.894072948640318</v>
       </c>
       <c r="E20">
-        <v>10.6910891674278</v>
+        <v>10.78986264332973</v>
       </c>
       <c r="F20">
-        <v>24.59647266782849</v>
+        <v>23.8960198974734</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.836325282053178</v>
+        <v>1.793653254435209</v>
       </c>
       <c r="I20">
-        <v>2.595761634024025</v>
+        <v>2.518571665399598</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>15.20048575358914</v>
+        <v>14.50676720683979</v>
       </c>
       <c r="L20">
-        <v>6.65047799767471</v>
+        <v>11.84146219294507</v>
       </c>
       <c r="M20">
-        <v>12.78164663972775</v>
+        <v>9.684706978198619</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.65469203397851</v>
       </c>
       <c r="O20">
-        <v>13.04814530469902</v>
+        <v>12.79088861067767</v>
       </c>
       <c r="P20">
-        <v>12.73900728130524</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>17.13918140534858</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.07876343081755</v>
+      </c>
+      <c r="R20">
+        <v>12.61411518258616</v>
+      </c>
+      <c r="S20">
+        <v>16.55687253696017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.99969133824003</v>
+        <v>14.6049864755266</v>
       </c>
       <c r="C21">
-        <v>9.418260125385418</v>
+        <v>10.09717751916886</v>
       </c>
       <c r="D21">
-        <v>8.132771347019045</v>
+        <v>8.323162972780571</v>
       </c>
       <c r="E21">
-        <v>11.24044703895569</v>
+        <v>11.33815711427365</v>
       </c>
       <c r="F21">
-        <v>25.22874723578735</v>
+        <v>24.45640080239752</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.572952250690781</v>
+        <v>1.582023859761101</v>
       </c>
       <c r="I21">
-        <v>2.587805341358868</v>
+        <v>2.667740785849349</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>15.22245943364596</v>
+        <v>14.47510254342455</v>
       </c>
       <c r="L21">
-        <v>6.830917922932302</v>
+        <v>11.69927735681564</v>
       </c>
       <c r="M21">
-        <v>13.50570969833501</v>
+        <v>9.864563566079708</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.82871642712501</v>
       </c>
       <c r="O21">
-        <v>13.73492761483418</v>
+        <v>13.50959652599458</v>
       </c>
       <c r="P21">
-        <v>12.56435838808811</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.34641154636045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.76745887746047</v>
+      </c>
+      <c r="R21">
+        <v>12.44777758669738</v>
+      </c>
+      <c r="S21">
+        <v>16.70888195021753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.53975184285374</v>
+        <v>15.10981537768756</v>
       </c>
       <c r="C22">
-        <v>9.710097753817992</v>
+        <v>10.44964246782514</v>
       </c>
       <c r="D22">
-        <v>8.352309576833902</v>
+        <v>8.550693343276828</v>
       </c>
       <c r="E22">
-        <v>11.50041339916642</v>
+        <v>11.59746187961271</v>
       </c>
       <c r="F22">
-        <v>25.59547634194608</v>
+        <v>24.77950599390013</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.698280607321836</v>
+        <v>1.726578734735882</v>
       </c>
       <c r="I22">
-        <v>2.686819383644611</v>
+        <v>2.755337812473754</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>15.23656234649789</v>
+        <v>14.45541281273895</v>
       </c>
       <c r="L22">
-        <v>6.913095803155107</v>
+        <v>11.6049348763802</v>
       </c>
       <c r="M22">
-        <v>13.95169470690986</v>
+        <v>9.995501992807153</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.907121510491361</v>
       </c>
       <c r="O22">
-        <v>14.11421153880791</v>
+        <v>13.95227032718235</v>
       </c>
       <c r="P22">
-        <v>12.45109361789728</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.470676729278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.14772891192907</v>
+      </c>
+      <c r="R22">
+        <v>12.34061121180159</v>
+      </c>
+      <c r="S22">
+        <v>16.799064928689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.26827203226087</v>
+        <v>14.85682395529595</v>
       </c>
       <c r="C23">
-        <v>9.530765039185466</v>
+        <v>10.23742609558157</v>
       </c>
       <c r="D23">
-        <v>8.23084160083946</v>
+        <v>8.42499135064759</v>
       </c>
       <c r="E23">
-        <v>11.36089165695092</v>
+        <v>11.45826904729005</v>
       </c>
       <c r="F23">
-        <v>25.42056137735008</v>
+        <v>24.62758769325098</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.619271833037882</v>
+        <v>1.650342370138366</v>
       </c>
       <c r="I23">
-        <v>2.62884576084788</v>
+        <v>2.702092782121012</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>15.24590137745722</v>
+        <v>14.4818883867317</v>
       </c>
       <c r="L23">
-        <v>6.870193095152352</v>
+        <v>11.66604425371412</v>
       </c>
       <c r="M23">
-        <v>13.71611595011767</v>
+        <v>9.938416135405161</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.866206298894341</v>
       </c>
       <c r="O23">
-        <v>13.91224439002685</v>
+        <v>13.71843951331882</v>
       </c>
       <c r="P23">
-        <v>12.51247779671503</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.42009370459624</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.94524814792719</v>
+      </c>
+      <c r="R23">
+        <v>12.39813539900779</v>
+      </c>
+      <c r="S23">
+        <v>16.7663339827875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.16609951439002</v>
+        <v>13.82824771098612</v>
       </c>
       <c r="C24">
-        <v>8.868226848772681</v>
+        <v>9.445500084824294</v>
       </c>
       <c r="D24">
-        <v>7.764632474110747</v>
+        <v>7.942390745350838</v>
       </c>
       <c r="E24">
-        <v>10.81986423556256</v>
+        <v>10.9188538458463</v>
       </c>
       <c r="F24">
-        <v>24.72926199922627</v>
+        <v>24.02433113045755</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.81515997077515</v>
+        <v>1.772381651709947</v>
       </c>
       <c r="I24">
-        <v>2.575094961469014</v>
+        <v>2.507399521950064</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>15.2621792989249</v>
+        <v>14.56271027715789</v>
       </c>
       <c r="L24">
-        <v>6.703177383053188</v>
+        <v>11.88378934789638</v>
       </c>
       <c r="M24">
-        <v>12.78388783915732</v>
+        <v>9.727574088420827</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.706950900020746</v>
       </c>
       <c r="O24">
-        <v>13.12293449672074</v>
+        <v>12.7930303137684</v>
       </c>
       <c r="P24">
-        <v>12.74547733992826</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.2136943328045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.15372749799949</v>
+      </c>
+      <c r="R24">
+        <v>12.61799462661457</v>
+      </c>
+      <c r="S24">
+        <v>16.62743455919646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.86735671479173</v>
+        <v>12.6162513623499</v>
       </c>
       <c r="C25">
-        <v>8.105194794107135</v>
+        <v>8.529676456485685</v>
       </c>
       <c r="D25">
-        <v>7.233065045814688</v>
+        <v>7.392622100682164</v>
       </c>
       <c r="E25">
-        <v>10.20581019272762</v>
+        <v>10.30740960842536</v>
       </c>
       <c r="F25">
-        <v>23.99707628520171</v>
+        <v>23.38745459988483</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.170384383009328</v>
+        <v>2.115467720341254</v>
       </c>
       <c r="I25">
-        <v>2.82239578556683</v>
+        <v>2.713771872885231</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>15.29841382141101</v>
+        <v>14.66433400354916</v>
       </c>
       <c r="L25">
-        <v>6.516366208796725</v>
+        <v>12.1265602190211</v>
       </c>
       <c r="M25">
-        <v>11.69515844554121</v>
+        <v>9.564964141691458</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.528941324471517</v>
       </c>
       <c r="O25">
-        <v>12.21932436384796</v>
+        <v>11.71213801371624</v>
       </c>
       <c r="P25">
-        <v>13.00176328353916</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>17.01536589913017</v>
+        <v>12.24721114474876</v>
+      </c>
+      <c r="R25">
+        <v>12.86100559971992</v>
+      </c>
+      <c r="S25">
+        <v>16.49998249966209</v>
       </c>
     </row>
   </sheetData>
